--- a/server/controllers/excelfrompdf.xlsx
+++ b/server/controllers/excelfrompdf.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX36"/>
+  <dimension ref="A1:CT89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>_x0001__x0002__x0003_</v>
       </c>
       <c r="J2" t="str">
-        <v>421159306</v>
+        <v>421159891</v>
       </c>
       <c r="K2" t="str">
         <v>_x0010__x0011__x0004__x0012_</v>
@@ -474,7 +474,7 @@
 _x0008_</v>
       </c>
       <c r="Y2" t="str">
-        <v>04.07.2022</v>
+        <v>06.07.2022</v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">%_x000c_&amp;_x001b_'
@@ -491,254 +491,242 @@
 _x0008_</v>
       </c>
       <c r="AD2" t="str">
-        <v>8000162</v>
+        <v>8000235</v>
       </c>
       <c r="AE2" t="str">
-        <v>_x0010__x0011__x0015__x0016__x0017__x0018_</v>
+        <v>_x0015__x0016__x0017__x0018_</v>
       </c>
       <c r="AF2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG2" t="str">
-        <v>_x0019__x0016__x001a__x001b_</v>
+        <v>_x0019__x001a__x000d__x001b_</v>
       </c>
       <c r="AH2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AI2" t="str">
-        <v>_x001c__x001d__x000d__x001e_</v>
+        <v>_x001c__x001d__x001e_</v>
       </c>
       <c r="AJ2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AK2" t="str">
-        <v xml:space="preserve">_x001f__x0015_ </v>
+        <v>_x0019__x000c__x0011_</v>
       </c>
       <c r="AL2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AM2" t="str">
+        <v xml:space="preserve">:  </v>
+      </c>
+      <c r="AM2" t="str" xml:space="preserve">
+        <v xml:space="preserve">)_x0004_*
+_x0008_</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>1100</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="AP2" t="str">
+        <v xml:space="preserve">:  </v>
+      </c>
+      <c r="AQ2" t="str" xml:space="preserve">
+        <v xml:space="preserve">)_x0004_*
+_x0008_</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>Main Branch</v>
+      </c>
+      <c r="AS2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>:</v>
+      </c>
+      <c r="AU2" t="str" xml:space="preserve">
+        <v xml:space="preserve">%,-_x001c_'
+_x0008_</v>
+      </c>
+      <c r="AV2" t="str">
+        <v>._x000c_+_x0019_</v>
+      </c>
+      <c r="AW2" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="AX2" t="str">
+        <v>/</v>
+      </c>
+      <c r="AY2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ2" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0015__x0015_0$
+_x0008_</v>
+      </c>
+      <c r="BA2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB2" t="str">
+        <v>_x0013_1_x000d_</v>
+      </c>
+      <c r="BC2" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>:</v>
+      </c>
+      <c r="BE2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0003__x000e__x0015__x001e_
+_x0008_</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="BG2" t="str">
+        <v xml:space="preserve">: </v>
+      </c>
+      <c r="BH2" t="str" xml:space="preserve">
+        <v xml:space="preserve">2_x0015_'0
+_x0008_</v>
+      </c>
+      <c r="BI2" t="str">
+        <v>._x000c_+_x0019_</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK2" t="str">
+        <v>%,_x0004_3</v>
+      </c>
+      <c r="BL2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM2" t="str">
+        <v>_x0013__x0017_4</v>
+      </c>
+      <c r="BN2" t="str">
+        <v xml:space="preserve">: </v>
+      </c>
+      <c r="BO2" t="str" xml:space="preserve">
+        <v xml:space="preserve">56_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="BP2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="BR2" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="BS2" t="str">
+        <v>2_x0015__x0016__x001e__x000d_</v>
+      </c>
+      <c r="BT2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU2" t="str">
+        <v>4963</v>
+      </c>
+      <c r="BV2" t="str">
+        <v>:</v>
+      </c>
+      <c r="BW2" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x0008__x000c__x001c_0
+_x0008_</v>
+      </c>
+      <c r="BX2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
+_x0008_</v>
+      </c>
+      <c r="BY2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ2" t="str">
+        <v>_x0010__x0017__x0003_-_x001c_9+_x0008_</v>
+      </c>
+      <c r="CA2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CB2" t="str">
+        <v>5_x0017__x0004_:</v>
+      </c>
+      <c r="CC2" t="str">
+        <v xml:space="preserve"> 60 </v>
+      </c>
+      <c r="CD2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000c_&amp;_x0015_9
+_x0008_</v>
+      </c>
+      <c r="CE2" t="str">
         <v>_x0019__x000c__x0011_</v>
       </c>
-      <c r="AN2" t="str">
-        <v xml:space="preserve">:  </v>
-      </c>
-      <c r="AO2" t="str" xml:space="preserve">
-        <v xml:space="preserve">)_x0004_*
-_x0008_</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>1100</v>
-      </c>
-      <c r="AQ2" t="str">
+      <c r="CF2" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="CG2" t="str">
         <v>_x0001_+_x0008_</v>
       </c>
-      <c r="AR2" t="str">
-        <v xml:space="preserve">:  </v>
-      </c>
-      <c r="AS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">)_x0004_*
-_x0008_</v>
-      </c>
-      <c r="AT2" t="str">
-        <v>Main Branch</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>:</v>
-      </c>
-      <c r="AW2" t="str" xml:space="preserve">
-        <v xml:space="preserve">%,-_x001c_'
-_x0008_</v>
-      </c>
-      <c r="AX2" t="str">
-        <v>!_x000e__x0017__x000c_&amp;.</v>
-      </c>
-      <c r="AY2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ2" t="str">
-        <v>/_x000c_+_x0019_</v>
-      </c>
-      <c r="BA2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB2" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0015__x0015_0$
-_x0008_</v>
-      </c>
-      <c r="BC2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BD2" t="str">
-        <v>_x0013_1_x000d_</v>
-      </c>
-      <c r="BE2" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="BF2" t="str">
-        <v>:</v>
-      </c>
-      <c r="BG2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0003__x000e__x0015__x001e_
-_x0008_</v>
-      </c>
-      <c r="BH2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="BI2" t="str">
-        <v xml:space="preserve">: </v>
-      </c>
-      <c r="BJ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">2_x0015_'0
-_x0008_</v>
-      </c>
-      <c r="BK2" t="str">
-        <v>!_x000e__x0017__x000c_&amp;.</v>
-      </c>
-      <c r="BL2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BM2" t="str">
-        <v>/_x000c_+_x0019_</v>
-      </c>
-      <c r="BN2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BO2" t="str">
-        <v>%,_x0004_3</v>
-      </c>
-      <c r="BP2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BQ2" t="str">
-        <v>_x0013__x0017_4</v>
-      </c>
-      <c r="BR2" t="str">
-        <v xml:space="preserve">: </v>
-      </c>
-      <c r="BS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">56_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="BT2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BU2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="BV2" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="BW2" t="str">
-        <v>2_x0015__x0016__x001e__x000d_</v>
-      </c>
-      <c r="BX2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BY2" t="str">
-        <v>4963</v>
-      </c>
-      <c r="BZ2" t="str">
-        <v>:</v>
-      </c>
-      <c r="CA2" t="str" xml:space="preserve">
-        <v xml:space="preserve">7_x0008__x000c__x001c_0
-_x0008_</v>
-      </c>
-      <c r="CB2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
-_x0008_</v>
-      </c>
-      <c r="CC2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="CD2" t="str">
-        <v>_x0010__x0017__x0003_-_x001c_9+_x0008_</v>
-      </c>
-      <c r="CE2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="CF2" t="str">
-        <v>5_x0017__x0004_:</v>
-      </c>
-      <c r="CG2" t="str">
-        <v xml:space="preserve"> 60 </v>
-      </c>
-      <c r="CH2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000c_&amp;_x0015_9
-_x0008_</v>
-      </c>
-      <c r="CI2" t="str">
-        <v>_x0019__x000c__x0011_</v>
+      <c r="CH2" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="CI2" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
       </c>
       <c r="CJ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CK2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="CL2" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">_x000b_-&lt;_x000c_
+_x0008_</v>
+      </c>
+      <c r="CK2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_0
+_x0008_</v>
+      </c>
+      <c r="CL2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'9
+_x0008_</v>
       </c>
       <c r="CM2" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CN2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b_-._x000c_
-_x0008_</v>
+        <v xml:space="preserve">_x0004_0_x001e_
+_x0008_</v>
+      </c>
+      <c r="CN2" t="str">
+        <v>_x0004_0+</v>
       </c>
       <c r="CO2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x000c__x0014_0
+        <v xml:space="preserve">=&amp;&gt;$_x001e_'
 _x0008_</v>
       </c>
       <c r="CP2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_'9
+        <v xml:space="preserve">_x0001_ ?
 _x0008_</v>
       </c>
       <c r="CQ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0004_0_x001e_
+        <v xml:space="preserve">_x0001_ ?
 _x0008_</v>
       </c>
       <c r="CR2" t="str">
-        <v>_x0004_0+</v>
+        <v>@_x000f__x000e_A4_x0008_</v>
       </c>
       <c r="CS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;&amp;=$_x001e_'
-_x0008_</v>
-      </c>
-      <c r="CT2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="CU2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="CV2" t="str">
-        <v>?_x000f__x000e_@4_x0008_</v>
-      </c>
-      <c r="CW2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-      <c r="CX2" t="str">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_B
+_x0008_</v>
+      </c>
+      <c r="CT2" t="str">
         <v>%</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_B
 _x0008_</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
+        <v xml:space="preserve">@
 _x000e_'3_x0008_</v>
       </c>
     </row>
@@ -749,7 +737,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B</v>
+        <v>/</v>
       </c>
     </row>
     <row r="7">
@@ -762,64 +750,64 @@
         <v>C</v>
       </c>
       <c r="B8" t="str">
-        <v>96237</v>
+        <v>96022</v>
       </c>
       <c r="C8" t="str">
-        <v>*</v>
+        <v>D&amp;_x0014_$_x0005_</v>
       </c>
       <c r="D8" t="str">
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
+        <v>D_x001c__x0014_3</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G8" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H8" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve"> 12 </v>
+      </c>
+      <c r="J8" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="K8" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L8" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M8" t="str">
+        <v xml:space="preserve">    12</v>
+      </c>
+      <c r="N8" t="str">
+        <v xml:space="preserve"> 330</v>
+      </c>
+      <c r="O8" t="str">
+        <v xml:space="preserve"> 54.25</v>
+      </c>
+      <c r="P8" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q8" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R8" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="S8" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T8" t="str">
         <v xml:space="preserve"> 12</v>
       </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H8" t="str">
-        <v>D</v>
-      </c>
-      <c r="I8" t="str">
-        <v xml:space="preserve"> 2 </v>
-      </c>
-      <c r="J8" t="str">
-        <v>,E_x0015_&amp;F</v>
-      </c>
-      <c r="K8" t="str">
-        <v>)</v>
-      </c>
-      <c r="L8" t="str">
-        <v xml:space="preserve"> 12</v>
-      </c>
-      <c r="M8" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="N8" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="O8" t="str">
-        <v xml:space="preserve"> 75</v>
-      </c>
-      <c r="P8" t="str">
-        <v xml:space="preserve"> 228.00</v>
-      </c>
-      <c r="Q8" t="str">
-        <v>D</v>
-      </c>
-      <c r="R8" t="str">
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="S8" t="str">
-        <v>_x0010_G_x000f_</v>
-      </c>
-      <c r="T8" t="str">
-        <v>12*12</v>
-      </c>
       <c r="U8" t="str">
-        <v>1,026.00</v>
+        <v>1,074.15</v>
       </c>
       <c r="V8" t="str">
         <v>-</v>
@@ -833,305 +821,315 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> 765.43</v>
+        <v xml:space="preserve"> 801.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>.16,074</v>
+        <v>.16,828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 35</v>
       </c>
       <c r="B11" t="str">
-        <v>96252</v>
+        <v>96023</v>
       </c>
       <c r="C11" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>D_x0015__x001c_3</v>
       </c>
       <c r="D11" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 5 </v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>%_x000e__x0014__x0011_</v>
       </c>
       <c r="F11" t="str">
-        <v>_x0003__x000e_$+</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v>H0_x001b__x0002_</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="H11" t="str">
-        <v>12*</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I11" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="J11" t="str">
         <v>CAR</v>
       </c>
       <c r="K11" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve">    12</v>
       </c>
       <c r="L11" t="str">
-        <v xml:space="preserve"> 25</v>
+        <v xml:space="preserve"> 550</v>
       </c>
       <c r="M11" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve"> 54.25</v>
       </c>
       <c r="N11" t="str">
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="O11" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="P11" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v>_x0010_F_x000f_</v>
       </c>
       <c r="Q11" t="str">
-        <v>12*12</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="R11" t="str">
-        <v>-171.00</v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="S11" t="str">
+        <v>1,790.25</v>
+      </c>
+      <c r="T11" t="str">
+        <v>-</v>
+      </c>
+      <c r="U11" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T11" t="str">
-        <v>14</v>
+      <c r="V11" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v>1,335.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2,679.0</v>
+        <v>.28,047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 25</v>
       </c>
       <c r="B14" t="str">
-        <v>96254</v>
+        <v>96024</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">12 </v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="D14" t="str">
-        <v>D</v>
+        <v>@&amp;_x0015__x0012_</v>
       </c>
       <c r="E14" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v>"_x000d__x000c__x0012_</v>
+        <v>_x0013__x0017__x000c_+</v>
       </c>
       <c r="G14" t="str">
-        <v>H0_x001b__x0002_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
-        <v>12*</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="I14" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J14" t="str">
+        <v xml:space="preserve"> 12 </v>
+      </c>
+      <c r="K14" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="L14" t="str">
         <v>CAR</v>
       </c>
-      <c r="K14" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="L14" t="str">
-        <v xml:space="preserve"> 50</v>
-      </c>
       <c r="M14" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve">    12</v>
       </c>
       <c r="N14" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 222</v>
       </c>
       <c r="O14" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> 54.25</v>
       </c>
       <c r="P14" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v>E</v>
       </c>
       <c r="Q14" t="str">
-        <v>12*12</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="R14" t="str">
-        <v>-342.00</v>
+        <v>_x0010_F_x000f_</v>
       </c>
       <c r="S14" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T14" t="str">
+        <v xml:space="preserve"> 12</v>
+      </c>
+      <c r="U14" t="str">
+        <v>-722.61</v>
+      </c>
+      <c r="V14" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T14" t="str">
-        <v>14</v>
+      <c r="W14" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v xml:space="preserve"> 539.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5,358.0</v>
+        <v>.11,320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 89</v>
       </c>
       <c r="B17" t="str">
-        <v>96259</v>
+        <v>96021</v>
       </c>
       <c r="C17" t="str">
-        <v>I&amp;_x0015_3</v>
+        <v>D_x0015__x001c_3</v>
       </c>
       <c r="D17" t="str">
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> 5 </v>
       </c>
       <c r="E17" t="str">
-        <v>_x000c__x0016__x001c__x0015_3</v>
+        <v>D_x001b__x0012_</v>
       </c>
       <c r="F17" t="str">
-        <v xml:space="preserve">12 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v>D</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="H17" t="str">
-        <v>1</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I17" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="J17" t="str">
-        <v>4_x000c__x0011_</v>
+        <v>CAR</v>
       </c>
       <c r="K17" t="str">
-        <v>H0_x001b__x0002_</v>
+        <v xml:space="preserve">    12</v>
       </c>
       <c r="L17" t="str">
-        <v>12*</v>
+        <v xml:space="preserve"> 330</v>
       </c>
       <c r="M17" t="str">
-        <v>H_x0014_&amp;_x001f_</v>
+        <v xml:space="preserve"> 54.25</v>
       </c>
       <c r="N17" t="str">
-        <v>CAR</v>
+        <v>E</v>
       </c>
       <c r="O17" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="P17" t="str">
-        <v xml:space="preserve"> 25</v>
+        <v>_x0010_F_x000f_</v>
       </c>
       <c r="Q17" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="R17" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="S17" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>1,074.15</v>
       </c>
       <c r="T17" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v>-</v>
       </c>
       <c r="U17" t="str">
-        <v>12*12</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="V17" t="str">
-        <v>-171.00</v>
-      </c>
-      <c r="W17" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="X17" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v xml:space="preserve"> 801.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2,679.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>.16,828</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 35</v>
       </c>
       <c r="B20" t="str">
-        <v>96304</v>
+        <v>96026</v>
       </c>
       <c r="C20" t="str">
-        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
-      </c>
-      <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">D0
+_x000c__x0005_</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;_x0015__x0011_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>D_x001b__x0012_</v>
       </c>
       <c r="G20" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
-        <v>)</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="I20" t="str">
-        <v xml:space="preserve"> 24 *</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J20" t="str">
-        <v>/</v>
+        <v xml:space="preserve"> 12 </v>
       </c>
       <c r="K20" t="str">
-        <v xml:space="preserve"> 12 </v>
+        <v>D_x0015__x001c_3</v>
       </c>
       <c r="L20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CAR</v>
       </c>
       <c r="M20" t="str">
-        <v>D</v>
+        <v xml:space="preserve">    12</v>
       </c>
       <c r="N20" t="str">
-        <v xml:space="preserve"> 1</v>
+        <v xml:space="preserve"> 26</v>
       </c>
       <c r="O20" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve"> 54.25</v>
       </c>
       <c r="P20" t="str">
-        <v xml:space="preserve">     1</v>
+        <v>E</v>
       </c>
       <c r="Q20" t="str">
-        <v xml:space="preserve"> 20</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="R20" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v>_x0010_F_x000f_</v>
       </c>
       <c r="S20" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="T20" t="str">
-        <v>_x0010_G_x000f_</v>
+        <v xml:space="preserve"> 12</v>
       </c>
       <c r="U20" t="str">
-        <v>-268.80</v>
+        <v>-84.63</v>
       </c>
       <c r="V20" t="str">
         <v xml:space="preserve"> 0.00</v>
@@ -1139,543 +1137,1888 @@
       <c r="W20" t="str">
         <v>5</v>
       </c>
+      <c r="X20" t="str">
+        <v xml:space="preserve"> 63.14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> 200.53</v>
+        <v>1,325.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>4,211.2</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="B22" t="str">
+        <v>96004</v>
+      </c>
+      <c r="C22" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="D22" t="str">
+        <v>@&amp;_x0015__x0012_</v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F22" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="G22" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H22" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="I22" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J22" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="K22" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="L22" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M22" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N22" t="str">
+        <v xml:space="preserve"> 364</v>
+      </c>
+      <c r="O22" t="str">
+        <v xml:space="preserve"> 26.75</v>
+      </c>
+      <c r="P22" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q22" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R22" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="S22" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T22" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="U22" t="str">
+        <v>-584.22</v>
+      </c>
+      <c r="V22" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve"> 0</v>
-      </c>
-      <c r="B23" t="str">
-        <v>96307</v>
-      </c>
-      <c r="C23" t="str">
-        <v>_x0004__x0015_J</v>
-      </c>
-      <c r="D23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E23" t="str">
-        <v>H_x000d_4_x000c_9_x0015__x0012_</v>
-      </c>
-      <c r="F23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G23" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
-      </c>
-      <c r="H23" t="str" xml:space="preserve">
-        <v xml:space="preserve">K_x000c_=_x001a_
-_x0008_</v>
-      </c>
-      <c r="I23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J23" t="str">
-        <v>_x0001_0_x001b_F</v>
-      </c>
-      <c r="K23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L23" t="str">
-        <v>"_x001b_L_x0005_</v>
-      </c>
-      <c r="M23" t="str">
-        <v>1</v>
-      </c>
-      <c r="N23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O23" t="str">
-        <v>D</v>
-      </c>
-      <c r="P23" t="str">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="R23" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="S23" t="str">
-        <v xml:space="preserve"> 50</v>
-      </c>
-      <c r="T23" t="str">
-        <v xml:space="preserve"> 224.00</v>
-      </c>
-      <c r="U23" t="str">
-        <v xml:space="preserve">1 </v>
-      </c>
-      <c r="V23" t="str">
-        <v>_x0010_G_x000f_</v>
-      </c>
-      <c r="W23" t="str">
-        <v>-672.00</v>
-      </c>
-      <c r="X23" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="Y23" t="str">
-        <v>5</v>
+        <v xml:space="preserve"> 435.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> 501.33</v>
+        <v>9,152.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>.10,528</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="B25" t="str">
+        <v>96001</v>
+      </c>
+      <c r="C25" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="E25" t="str">
+        <v>D_x001b__x0012_</v>
+      </c>
+      <c r="F25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G25" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H25" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I25" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="J25" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K25" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="L25" t="str">
+        <v xml:space="preserve"> 364</v>
+      </c>
+      <c r="M25" t="str">
+        <v xml:space="preserve"> 26.75</v>
+      </c>
+      <c r="N25" t="str">
+        <v>E</v>
+      </c>
+      <c r="O25" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="P25" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="R25" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="S25" t="str">
+        <v>-584.22</v>
+      </c>
+      <c r="T25" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve"> 00</v>
-      </c>
-      <c r="B26" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
-_x000e_'34_x0008_</v>
-      </c>
-      <c r="C26" t="str">
-        <v>2,650.80</v>
-      </c>
-      <c r="D26" t="str">
-        <v>-</v>
-      </c>
-      <c r="E26" t="str">
-        <v xml:space="preserve"> 0.00</v>
+        <v xml:space="preserve"> 435.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2,783.29</v>
+        <v>9,152.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>.41,529</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="B28" t="str">
+        <v>96002</v>
+      </c>
+      <c r="C28" t="str">
+        <v>D&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E28" t="str">
+        <v>D_x001c__x0014_3</v>
+      </c>
+      <c r="F28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G28" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H28" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I28" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="J28" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="K28" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="L28" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M28" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N28" t="str">
+        <v xml:space="preserve"> 348</v>
+      </c>
+      <c r="O28" t="str">
+        <v xml:space="preserve"> 26.75</v>
+      </c>
+      <c r="P28" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q28" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R28" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="S28" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T28" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="U28" t="str">
+        <v>-558.54</v>
+      </c>
+      <c r="V28" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="str">
+        <v xml:space="preserve"> 416.69</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>8,750.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="B31" t="str">
+        <v>96000</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="D31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E31" t="str">
+        <v>_x0001_:_x000e_':</v>
+      </c>
+      <c r="F31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G31" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I31" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J31" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="K31" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="L31" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M31" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N31" t="str">
+        <v xml:space="preserve"> 364</v>
+      </c>
+      <c r="O31" t="str">
+        <v xml:space="preserve"> 26.75</v>
+      </c>
+      <c r="P31" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q31" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R31" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="S31" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T31" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="U31" t="str">
+        <v>-584.22</v>
+      </c>
+      <c r="V31" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v xml:space="preserve"> 435.85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>9,152.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="B34" t="str">
+        <v>96013</v>
+      </c>
+      <c r="C34" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="D34" t="str">
+        <v xml:space="preserve"> 3 </v>
+      </c>
+      <c r="E34" t="str">
+        <v>%_x000e__x0014__x0011_</v>
+      </c>
+      <c r="F34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G34" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H34" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I34" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="J34" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K34" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="L34" t="str">
+        <v xml:space="preserve"> 299</v>
+      </c>
+      <c r="M34" t="str">
+        <v xml:space="preserve"> 40.25</v>
+      </c>
+      <c r="N34" t="str">
+        <v>E</v>
+      </c>
+      <c r="O34" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="P34" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="R34" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="S34" t="str">
+        <v>-722.09</v>
+      </c>
+      <c r="T34" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve"> 538.70</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>.11,312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve"> 66</v>
+      </c>
+      <c r="B37" t="str">
+        <v>90067</v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve">24 </v>
+      </c>
+      <c r="D37" t="str">
+        <v>E</v>
+      </c>
+      <c r="E37" t="str">
+        <v xml:space="preserve"> 1 </v>
+      </c>
+      <c r="F37" t="str">
+        <v>_x0001_:_x000e_':</v>
+      </c>
+      <c r="G37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H37" t="str">
+        <v>G_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="I37" t="str">
+        <v>_x001d_</v>
+      </c>
+      <c r="J37" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K37" t="str">
+        <v xml:space="preserve">    24</v>
+      </c>
+      <c r="L37" t="str">
+        <v xml:space="preserve"> 600</v>
+      </c>
+      <c r="M37" t="str">
+        <v xml:space="preserve"> 20.50</v>
+      </c>
+      <c r="N37" t="str">
+        <v>E</v>
+      </c>
+      <c r="O37" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P37" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="R37" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="S37" t="str">
+        <v>-738.00</v>
+      </c>
+      <c r="T37" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v xml:space="preserve"> 550.57</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>.11,562</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B40" t="str">
+        <v>96012</v>
+      </c>
+      <c r="C40" t="str">
+        <v>D&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E40" t="str">
+        <v>D_x001c__x0014_3</v>
+      </c>
+      <c r="F40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G40" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H40" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I40" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="J40" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="K40" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="L40" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M40" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N40" t="str">
+        <v xml:space="preserve"> 286</v>
+      </c>
+      <c r="O40" t="str">
+        <v xml:space="preserve"> 40.25</v>
+      </c>
+      <c r="P40" t="str">
+        <v>E</v>
+      </c>
+      <c r="Q40" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="R40" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="S40" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T40" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="U40" t="str">
+        <v>-690.69</v>
+      </c>
+      <c r="V40" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve"> 515.28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>.10,820</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v xml:space="preserve"> 81</v>
+      </c>
+      <c r="B43" t="str">
+        <v>91552</v>
+      </c>
+      <c r="C43" t="str">
+        <v>_x0010__x001b__x0012_</v>
+      </c>
+      <c r="D43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E43" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="F43" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="G43" t="str">
+        <v xml:space="preserve"> 24 </v>
+      </c>
+      <c r="H43" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="I43" t="str">
+        <v>1</v>
+      </c>
+      <c r="J43" t="str">
+        <v>"&amp;H</v>
+      </c>
+      <c r="K43" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="L43" t="str">
+        <v xml:space="preserve">    24</v>
+      </c>
+      <c r="M43" t="str">
+        <v xml:space="preserve"> 715</v>
+      </c>
+      <c r="N43" t="str">
+        <v xml:space="preserve"> 22.00</v>
+      </c>
+      <c r="O43" t="str">
+        <v>E</v>
+      </c>
+      <c r="P43" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="Q43" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="R43" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="S43" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="T43" t="str">
+        <v>-943.80</v>
+      </c>
+      <c r="U43" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v xml:space="preserve"> 704.10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>.14,786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
         <v xml:space="preserve"> 20</v>
       </c>
-      <c r="B29" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x001f__x000e_A_x0014_
-_x0008_</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="B46" t="str">
+        <v>90066</v>
+      </c>
+      <c r="C46" t="str">
+        <v>E</v>
+      </c>
+      <c r="D46" t="str">
+        <v xml:space="preserve"> 1 </v>
+      </c>
+      <c r="E46" t="str">
+        <v>_x0010__x001c__x0014_3</v>
+      </c>
+      <c r="F46" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="G46" t="str">
+        <v>G_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="H46" t="str">
+        <v>_x001d_</v>
+      </c>
+      <c r="I46" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="J46" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K46" t="str">
+        <v xml:space="preserve">    24</v>
+      </c>
+      <c r="L46" t="str">
+        <v xml:space="preserve"> 700</v>
+      </c>
+      <c r="M46" t="str">
+        <v xml:space="preserve"> 20.50</v>
+      </c>
+      <c r="N46" t="str">
+        <v>E</v>
+      </c>
+      <c r="O46" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P46" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="R46" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="S46" t="str">
+        <v>-861.00</v>
+      </c>
+      <c r="T46" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v xml:space="preserve"> 642.33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>.13,489</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B49" t="str" xml:space="preserve">
+        <v xml:space="preserve">@
+_x000e_'34_x0008_</v>
+      </c>
+      <c r="C49" t="str">
+        <v>14,554.1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>-0</v>
+      </c>
+      <c r="E49" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>10,857.8</v>
+      </c>
+      <c r="B50" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>228,014</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve"> .15</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>205/050/743</v>
+      </c>
+      <c r="B54" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
+</v>
+      </c>
+      <c r="D54" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c_
+_x000d__x000e__x000f_</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
+</v>
+      </c>
+      <c r="B55" t="str">
+        <v>2</v>
+      </c>
+      <c r="C55" t="str">
+        <v>/</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2</v>
+      </c>
+      <c r="E55" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="F55" t="str">
+        <v>_x0004__x0005__x0006_</v>
+      </c>
+      <c r="G55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007__x0008__x0004_	
+_x0008_</v>
+      </c>
+      <c r="H55" t="str">
+        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
+      </c>
+      <c r="I55" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="J55" t="str">
+        <v>421159891</v>
+      </c>
+      <c r="K55" t="str">
+        <v>_x0010__x0011__x0004__x0012_</v>
+      </c>
+      <c r="L55" t="str">
+        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
+      </c>
+      <c r="M55" t="str">
+        <v>_x0018__x0019__x000c__x000f_</v>
+      </c>
+      <c r="N55" t="str">
+        <v>_x0010__x001a__x001b__x001c__x0005_</v>
+      </c>
+      <c r="O55" t="str">
+        <v>_x001d__x0003__x000e__x0014__x0005_</v>
+      </c>
+      <c r="P55" t="str">
+        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
+      </c>
+      <c r="Q55" t="str">
         <v>-</v>
       </c>
-      <c r="D29" t="str" xml:space="preserve">
+      <c r="R55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
+_x0008_</v>
+      </c>
+      <c r="S55" t="str">
+        <v>!</v>
+      </c>
+      <c r="T55" t="str">
+        <v>048\590050-590051</v>
+      </c>
+      <c r="U55" t="str">
+        <v>"_x0011__x000e__x000f_</v>
+      </c>
+      <c r="V55" t="str">
+        <v>048\590052</v>
+      </c>
+      <c r="W55" t="str">
+        <v>_x0019__x000c__x0011_</v>
+      </c>
+      <c r="X55" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="Y55" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="Z55" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AA55" t="str" xml:space="preserve">
+        <v xml:space="preserve">;_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="AB55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-&lt;_x000c_
+_x0008_</v>
+      </c>
+      <c r="AC55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_0
+_x0008_</v>
+      </c>
+      <c r="AD55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'9
+_x0008_</v>
+      </c>
+      <c r="AE55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004_0_x001e_
+_x0008_</v>
+      </c>
+      <c r="AF55" t="str">
+        <v>_x0004_0+</v>
+      </c>
+      <c r="AG55" t="str" xml:space="preserve">
+        <v xml:space="preserve">=&amp;&gt;$_x001e_'
+_x0008_</v>
+      </c>
+      <c r="AH55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ ?
+_x0008_</v>
+      </c>
+      <c r="AI55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ ?
+_x0008_</v>
+      </c>
+      <c r="AJ55" t="str">
+        <v>@_x000f__x000e_A4_x0008_</v>
+      </c>
+      <c r="AK55" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_B
+_x0008_</v>
+      </c>
+      <c r="AL55" t="str">
+        <v>%</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_B
+_x0008_</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str" xml:space="preserve">
+        <v xml:space="preserve">@
+_x000e_'3_x0008_</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2_x0005__x000e__x0012_</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>C</v>
+      </c>
+      <c r="B61" t="str">
+        <v>95223</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1</v>
+      </c>
+      <c r="D61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F61" t="str">
+        <v>_x0008_I$_x0015_H</v>
+      </c>
+      <c r="G61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H61" t="str">
+        <v>G_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="I61" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J61" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="K61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L61" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M61" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="N61" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O61" t="str">
+        <v xml:space="preserve">    24</v>
+      </c>
+      <c r="P61" t="str">
+        <v xml:space="preserve"> 200</v>
+      </c>
+      <c r="Q61" t="str">
+        <v xml:space="preserve"> 20.50</v>
+      </c>
+      <c r="R61" t="str">
+        <v>E</v>
+      </c>
+      <c r="S61" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T61" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="U61" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V61" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="W61" t="str">
+        <v>-246.00</v>
+      </c>
+      <c r="X61" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v xml:space="preserve"> 183.52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>3,854.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B64" t="str">
+        <v>92130</v>
+      </c>
+      <c r="C64" t="str">
+        <v>!_x000c_8</v>
+      </c>
+      <c r="D64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E64" t="str">
+        <v>"H_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G64" t="str">
+        <v>_x0003__x0008__x000c_3_x000e_3</v>
+      </c>
+      <c r="H64" t="str">
+        <v>,</v>
+      </c>
+      <c r="I64" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J64" t="str">
+        <v>E,_x0019_</v>
+      </c>
+      <c r="K64" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="L64" t="str">
+        <v>15</v>
+      </c>
+      <c r="M64" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="N64" t="str">
+        <v>2</v>
+      </c>
+      <c r="O64" t="str">
+        <v>J	_x000d__x000e__x0011_</v>
+      </c>
+      <c r="P64" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="Q64" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="R64" t="str">
+        <v xml:space="preserve"> 312</v>
+      </c>
+      <c r="S64" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="T64" t="str">
+        <v>E</v>
+      </c>
+      <c r="U64" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V64" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="W64" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="X64" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>-477.36</v>
+      </c>
+      <c r="Z64" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="AA64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve"> 356.13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>7,478.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="B67" t="str">
+        <v>92132</v>
+      </c>
+      <c r="C67" t="str">
+        <v>_x0003__x000e_BK</v>
+      </c>
+      <c r="D67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E67" t="str">
+        <v>"H_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G67" t="str">
+        <v>_x0003__x0008__x000c_3_x000e_3</v>
+      </c>
+      <c r="H67" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I67" t="str">
+        <v xml:space="preserve">15 </v>
+      </c>
+      <c r="J67" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="K67" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L67" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="M67" t="str">
+        <v>_x0003__x000e_&lt;</v>
+      </c>
+      <c r="N67" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O67" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="P67" t="str">
+        <v xml:space="preserve"> 312</v>
+      </c>
+      <c r="Q67" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="R67" t="str">
+        <v>E</v>
+      </c>
+      <c r="S67" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="T67" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="U67" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V67" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="W67" t="str">
+        <v>-477.36</v>
+      </c>
+      <c r="X67" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve"> 356.13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>7,478.6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="B70" t="str">
+        <v>91682</v>
+      </c>
+      <c r="C70" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="D70" t="str">
+        <v>_x0008_I$_x0015_H</v>
+      </c>
+      <c r="E70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F70" t="str">
+        <v>IL_x000c__x0011_</v>
+      </c>
+      <c r="G70" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H70" t="str">
+        <v>_x000c_L_x000c__x0011_</v>
+      </c>
+      <c r="I70" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J70" t="str">
+        <v xml:space="preserve">  9 * </v>
+      </c>
+      <c r="K70" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="L70" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M70" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="N70" t="str">
+        <v xml:space="preserve"> 121</v>
+      </c>
+      <c r="O70" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="P70" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="Q70" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="R70" t="str">
+        <v>-272.25</v>
+      </c>
+      <c r="S70" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="T70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve"> 203.11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>4,265.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="B73" t="str">
+        <v>92116</v>
+      </c>
+      <c r="C73" t="str">
+        <v>M_x000e_H</v>
+      </c>
+      <c r="D73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E73" t="str">
+        <v>_x0003__x0008__x000c_3_x000e_3</v>
+      </c>
+      <c r="F73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G73" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="H73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I73" t="str">
+        <v>2</v>
+      </c>
+      <c r="J73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K73" t="str">
+        <v>J	_x000d__x000e__x0011_</v>
+      </c>
+      <c r="L73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M73" t="str">
+        <v>7_x0003__x000c__x0011_</v>
+      </c>
+      <c r="N73" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="O73" t="str">
+        <v>15</v>
+      </c>
+      <c r="P73" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="Q73" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="R73" t="str">
+        <v xml:space="preserve"> 520</v>
+      </c>
+      <c r="S73" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="T73" t="str">
+        <v>E</v>
+      </c>
+      <c r="U73" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V73" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="W73" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="X73" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>-795.60</v>
+      </c>
+      <c r="Z73" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="AA73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v xml:space="preserve"> 593.54</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>.12,464</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v xml:space="preserve"> 40</v>
+      </c>
+      <c r="B76" t="str">
+        <v>92117</v>
+      </c>
+      <c r="C76" t="str">
+        <v>D_x001c__x0014_3</v>
+      </c>
+      <c r="D76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E76" t="str">
+        <v>"_x000f__x000e_H</v>
+      </c>
+      <c r="F76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G76" t="str">
+        <v>_x0003__x0008__x000c_3_x000e_3</v>
+      </c>
+      <c r="H76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I76" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J76" t="str">
+        <v xml:space="preserve">15 </v>
+      </c>
+      <c r="K76" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="L76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M76" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N76" t="str">
+        <v>2</v>
+      </c>
+      <c r="O76" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="P76" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="Q76" t="str">
+        <v xml:space="preserve"> 416</v>
+      </c>
+      <c r="R76" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="S76" t="str">
+        <v>E</v>
+      </c>
+      <c r="T76" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="U76" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="V76" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="W76" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="X76" t="str">
+        <v>-636.48</v>
+      </c>
+      <c r="Y76" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve"> 474.83</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>9,971.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B79" t="str">
+        <v>92112</v>
+      </c>
+      <c r="C79" t="str">
+        <v>7_x0003__x000c__x0011_</v>
+      </c>
+      <c r="D79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E79" t="str">
+        <v>M_x000e_H</v>
+      </c>
+      <c r="F79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G79" t="str">
+        <v>_x0003__x0008__x000c_3_x000e_3</v>
+      </c>
+      <c r="H79" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="I79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J79" t="str">
+        <v>N'_x0017__x0004__x0011_</v>
+      </c>
+      <c r="K79" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L79" t="str">
+        <v>D_x001c__x0014_3</v>
+      </c>
+      <c r="M79" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="N79" t="str">
+        <v>15</v>
+      </c>
+      <c r="O79" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="P79" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="Q79" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="R79" t="str">
+        <v xml:space="preserve"> 416</v>
+      </c>
+      <c r="S79" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="T79" t="str">
+        <v>E</v>
+      </c>
+      <c r="U79" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V79" t="str">
+        <v>_x0010_F_x000f_</v>
+      </c>
+      <c r="W79" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="X79" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="Y79" t="str">
+        <v>-636.48</v>
+      </c>
+      <c r="Z79" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="AA79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve"> 474.83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>9,971.5</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B82" t="str" xml:space="preserve">
+        <v xml:space="preserve">@
+_x000e_'34_x0008_</v>
+      </c>
+      <c r="C82" t="str">
+        <v>14,554.1</v>
+      </c>
+      <c r="D82" t="str">
+        <v>-0</v>
+      </c>
+      <c r="E82" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>10,857.8</v>
+      </c>
+      <c r="B83" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>228,014</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v xml:space="preserve"> .15</v>
+      </c>
+      <c r="B85" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x001f__x000e_B_x0014_
+_x0008_</v>
+      </c>
+      <c r="C85" t="str">
+        <v>-</v>
+      </c>
+      <c r="D85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_'&amp;_x001e_'
 _x0008_</v>
       </c>
-      <c r="E29" t="str" xml:space="preserve">
+      <c r="E85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000e_1F</v>
-      </c>
-      <c r="F29" t="str" xml:space="preserve">
+_x000e_1H</v>
+      </c>
+      <c r="F85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_,</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G85" t="str">
         <v>-</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H85" t="str">
         <v>_x000b_-_x0015_3</v>
       </c>
-      <c r="I29" t="str">
-        <v>_x0004__x0015_J</v>
-      </c>
-      <c r="J29" t="str" xml:space="preserve">
+      <c r="I85" t="str">
+        <v>_x0004__x0015_O</v>
+      </c>
+      <c r="J85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_G_x001e__x0005_</v>
-      </c>
-      <c r="K29" t="str">
+_x000c_F_x001e__x0005_</v>
+      </c>
+      <c r="K85" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L85" t="str">
         <v>_x0007__x000c_+</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M85" t="str">
         <v>.</v>
       </c>
-      <c r="N29" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0017_E&gt;$
-_x0008_</v>
-      </c>
-      <c r="O29" t="str" xml:space="preserve">
+      <c r="N85" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0017_I?$
+_x0008_</v>
+      </c>
+      <c r="O85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_</v>
       </c>
-      <c r="P29" t="str">
+      <c r="P85" t="str">
         <v>-</v>
       </c>
-      <c r="Q29" t="str">
-        <v>_x0004__x0015_J</v>
-      </c>
-      <c r="R29" t="str" xml:space="preserve">
+      <c r="Q85" t="str">
+        <v>_x0004__x0015_O</v>
+      </c>
+      <c r="R85" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_G_x001e__x0005_</v>
-      </c>
-      <c r="S29" t="str">
+_x000c_F_x001e__x0005_</v>
+      </c>
+      <c r="S85" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="T29" t="str">
+      <c r="T85" t="str">
         <v>C_x0004__x001f_</v>
       </c>
-      <c r="U29" t="str">
-        <v>_x000e_=_x000d__x000e__x0016_$_x001c__x0005_</v>
-      </c>
-      <c r="V29" t="str">
-        <v>-0F</v>
-      </c>
-      <c r="W29" t="str">
-        <v>_x0007__x000e_=$M_x0008_</v>
-      </c>
-      <c r="X29" t="str">
+      <c r="U85" t="str">
+        <v>_x000e_&gt;_x000d__x000e__x0016_$_x001c__x0005_</v>
+      </c>
+      <c r="V85" t="str">
+        <v>-0H</v>
+      </c>
+      <c r="W85" t="str">
+        <v>_x0007__x000e_&gt;$L_x0008_</v>
+      </c>
+      <c r="X85" t="str">
         <v>#_x0017__x0003__x000e__x000d_</v>
       </c>
-      <c r="Y29" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_.N 
-_x0008_</v>
-      </c>
-      <c r="Z29" t="str" xml:space="preserve">
+      <c r="Y85" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_&lt;P 
+_x0008_</v>
+      </c>
+      <c r="Z85" t="str" xml:space="preserve">
         <v xml:space="preserve">7,-'
 _x0008_</v>
       </c>
-      <c r="AA29" t="str">
-        <v>_x000e_=_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AB29" t="str">
+      <c r="AA85" t="str">
+        <v>_x000e_&gt;_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AB85" t="str">
         <v>_x000e__x0005_,</v>
       </c>
-      <c r="AC29" t="str">
-        <v>O_x000d__x0004_$_x0017_</v>
-      </c>
-      <c r="AD29" t="str">
-        <v>H_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AE29" t="str">
+      <c r="AC85" t="str">
+        <v>J_x000d__x0004_$_x0017_</v>
+      </c>
+      <c r="AD85" t="str">
+        <v>D_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AE85" t="str">
         <v>(_x0005_</v>
       </c>
-      <c r="AF29" t="str">
+      <c r="AF85" t="str">
         <v>.</v>
       </c>
-      <c r="AG29" t="str">
-        <v>_x0003__x000e_P_x0008_</v>
-      </c>
-      <c r="AH29" t="str">
+      <c r="AG85" t="str">
+        <v>_x0003__x000e_Q_x0008_</v>
+      </c>
+      <c r="AH85" t="str">
         <v>4</v>
       </c>
-      <c r="AI29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ29" t="str">
+      <c r="AI85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ85" t="str">
         <v>_x000e__x0012__x0004__x0002_</v>
       </c>
-      <c r="AK29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AL29" t="str">
-        <v>7,_x0004_	_x001f_</v>
-      </c>
-      <c r="AM29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AN29" t="str">
-        <v>Q_x0004_ _x0005_</v>
-      </c>
-      <c r="AO29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AP29" t="str">
-        <v>H_x0015__x001c_3</v>
-      </c>
-      <c r="AQ29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AR29" t="str">
+      <c r="AK85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL85" t="str">
+        <v>_x0004_	_x001f__x0010__x001e_'K</v>
+      </c>
+      <c r="AM85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN85" t="str">
+        <v>R_x0004_ _x0005_</v>
+      </c>
+      <c r="AO85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP85" t="str">
+        <v>D_x0015__x001c_3</v>
+      </c>
+      <c r="AQ85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR85" t="str">
+        <v>_x0004_	_x001f__x0010_0H_x0003__x0008_,</v>
+      </c>
+      <c r="AS85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT85" t="str" xml:space="preserve">
+        <v xml:space="preserve">;
+_x0008_</v>
+      </c>
+      <c r="AU85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV85" t="str">
         <v>7,_x0004_	_x001f_,</v>
       </c>
-      <c r="AS29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT29" t="str">
-        <v>_x0010_0_x001e__x000d_,</v>
-      </c>
-      <c r="AU29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AV29" t="str">
-        <v>H6_x000e_'_x001e_'R,</v>
-      </c>
-      <c r="AW29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AX29" t="str" xml:space="preserve">
-        <v xml:space="preserve">;
-_x0008_</v>
-      </c>
-      <c r="AY29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ29" t="str">
-        <v>7_x000c_0F_x0003__x0008_,</v>
-      </c>
-      <c r="BA29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB29" t="str">
-        <v>-._x0008_,</v>
-      </c>
-      <c r="BC29" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BD29" t="str">
+      <c r="AW85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX85" t="str">
+        <v>_x0010__x0015_L_x000e_'Q,</v>
+      </c>
+      <c r="AY85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ85" t="str">
+        <v>7_x000e_$F_x0005_</v>
+      </c>
+      <c r="BA85" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB85" t="str">
         <v>S_x001a__x000f_</v>
       </c>
-      <c r="BE29" t="str">
+      <c r="BC85" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="BF29" t="str">
+      <c r="BD85" t="str">
         <v>FWI-SL-01\02:</v>
       </c>
-      <c r="BG29" t="str">
-        <v>,E_x0017_4_x0008_</v>
-      </c>
-      <c r="BH29" t="str" xml:space="preserve">
-        <v xml:space="preserve">S&gt;
-_x0008_</v>
-      </c>
-      <c r="BI29" t="str">
+      <c r="BE85" t="str">
+        <v>,I_x0017_4_x0008_</v>
+      </c>
+      <c r="BF85" t="str" xml:space="preserve">
+        <v xml:space="preserve">S?
+_x0008_</v>
+      </c>
+      <c r="BG85" t="str">
         <v>19624:</v>
       </c>
-      <c r="BJ29" t="str" xml:space="preserve">
-        <v xml:space="preserve">(R_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="BK29" t="str">
-        <v>_x0010__x0005_-R</v>
-      </c>
-      <c r="BL29" t="str">
+      <c r="BH85" t="str" xml:space="preserve">
+        <v xml:space="preserve">(K_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="BI85" t="str">
+        <v>_x0010__x0005_-K</v>
+      </c>
+      <c r="BJ85" t="str">
         <v>:</v>
       </c>
-      <c r="BM29" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007_N'0
-_x0008_</v>
-      </c>
-      <c r="BN29" t="str">
+      <c r="BK85" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007_P'0
+_x0008_</v>
+      </c>
+      <c r="BL85" t="str">
         <v>01224475178</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str" xml:space="preserve">
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
 _x0008_</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
+    <row r="87">
+      <c r="A87" t="str">
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
         <v>_x0003__x000e_'T$+U</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B88" t="str">
         <v xml:space="preserve">3303  </v>
       </c>
-      <c r="C32" t="str">
+      <c r="C88" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="D32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" t="str">
-        <v>Q_x0003__x000e__x0016__x000d_</v>
-      </c>
-      <c r="F32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G32" t="str">
+      <c r="D88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E88" t="str">
+        <v>R_x0003__x000e__x0016__x000d_</v>
+      </c>
+      <c r="F88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G88" t="str">
         <v>2_x0016_+</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H88" t="str">
         <v xml:space="preserve"> 026/214  </v>
       </c>
-      <c r="I32" t="str">
+      <c r="I88" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="J32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K32" t="str">
+      <c r="J88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K88" t="str">
         <v>;&amp;_x0005_</v>
       </c>
-      <c r="L32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M32" t="str" xml:space="preserve">
+      <c r="L88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M88" t="str" xml:space="preserve">
         <v xml:space="preserve">(_x0015_
 _x000c_''
 _x0008_</v>
       </c>
-      <c r="N32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O32" t="str" xml:space="preserve">
+      <c r="N88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O88" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0003__x000e__x0014_9
 </v>
       </c>
-      <c r="P32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q32" t="str" xml:space="preserve">
-        <v xml:space="preserve">?_x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-      <c r="R32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S32" t="str" xml:space="preserve">
-        <v xml:space="preserve">E_x0011__x0004_'
-_x0008_</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>205/050/743</v>
-      </c>
-      <c r="B34" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
-</v>
-      </c>
-      <c r="D34" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x000c_
-_x000d__x000e__x000f_</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
-</v>
-      </c>
-      <c r="B35" t="str">
-        <v>2</v>
-      </c>
-      <c r="C35" t="str">
-        <v>/</v>
-      </c>
-      <c r="D35" t="str">
-        <v>2</v>
-      </c>
-      <c r="E35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="F35" t="str">
-        <v>_x0004__x0005__x0006_</v>
-      </c>
-      <c r="G35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007__x0008__x0004_	
-_x0008_</v>
-      </c>
-      <c r="H35" t="str">
-        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
-      </c>
-      <c r="I35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="J35" t="str">
-        <v>421159306</v>
-      </c>
-      <c r="K35" t="str">
-        <v>_x0010__x0011__x0004__x0012_</v>
-      </c>
-      <c r="L35" t="str">
-        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
-      </c>
-      <c r="M35" t="str">
-        <v>_x0018__x0019__x000c__x000f_</v>
-      </c>
-      <c r="N35" t="str">
-        <v>_x0010__x001a__x001b__x001c__x0005_</v>
-      </c>
-      <c r="O35" t="str">
-        <v>_x001d__x0003__x000e__x0014__x0005_</v>
-      </c>
-      <c r="P35" t="str">
-        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
-      </c>
-      <c r="Q35" t="str">
-        <v>-</v>
-      </c>
-      <c r="R35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
-_x0008_</v>
-      </c>
-      <c r="S35" t="str">
-        <v>!</v>
-      </c>
-      <c r="T35" t="str">
-        <v>048\590050-590051</v>
-      </c>
-      <c r="U35" t="str">
-        <v>"_x0011__x000e__x000f_</v>
-      </c>
-      <c r="V35" t="str">
-        <v>048\590052</v>
-      </c>
-      <c r="W35" t="str">
+      <c r="P88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q88" t="str" xml:space="preserve">
+        <v xml:space="preserve">@_x0014__x0017__x0004_B
+_x0008_</v>
+      </c>
+      <c r="R88" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S88" t="str" xml:space="preserve">
+        <v xml:space="preserve">I_x0011__x0004_'
+_x0008_</v>
+      </c>
+      <c r="T88" t="str">
         <v>V_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="X35" t="str">
+      <c r="U88" t="str">
         <v>:</v>
       </c>
-      <c r="Y35" t="str" xml:space="preserve">
+      <c r="V88" t="str" xml:space="preserve">
         <v xml:space="preserve">%,-_x001c_'
 _x0008_</v>
       </c>
-      <c r="Z35" t="str">
+      <c r="W88" t="str">
         <v>--------------</v>
       </c>
-      <c r="AA35" t="str">
+      <c r="X88" t="str">
         <v>V_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="AB35" t="str" xml:space="preserve">
+      <c r="Y88" t="str" xml:space="preserve">
         <v xml:space="preserve">2_x0015_'0
 _x0008_</v>
       </c>
-      <c r="AC35" t="str">
+      <c r="Z88" t="str">
         <v>:</v>
       </c>
-      <c r="AD35" t="str">
-        <v>BN$+4_x000e_F</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
+      <c r="AA88" t="str">
+        <v>/P$+4_x000e_H</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
         <v>------------------</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CX36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CT89"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/controllers/excelfrompdf.xlsx
+++ b/server/controllers/excelfrompdf.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CX69"/>
+  <dimension ref="A1:CN168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
 </v>
       </c>
       <c r="B2" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="str">
         <v>/</v>
@@ -427,7 +427,7 @@
         <v>_x0001__x0002__x0003_</v>
       </c>
       <c r="J2" t="str">
-        <v>421160613</v>
+        <v>421216985</v>
       </c>
       <c r="K2" t="str">
         <v>_x0010__x0011__x0004__x0012_</v>
@@ -474,7 +474,7 @@
 _x0008_</v>
       </c>
       <c r="Y2" t="str">
-        <v>08.07.2022</v>
+        <v>01.02.2023</v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">%_x000c_&amp;_x001b_'
@@ -491,260 +491,231 @@
 _x0008_</v>
       </c>
       <c r="AD2" t="str">
-        <v>8000162</v>
-      </c>
-      <c r="AE2" t="str">
-        <v>_x0010__x0011__x0015__x0016__x0017__x0018_</v>
+        <v>8000249</v>
+      </c>
+      <c r="AE2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0015__x000d__x0005__x0016__x0013_	
+</v>
       </c>
       <c r="AF2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG2" t="str">
-        <v>_x0019__x0016__x001a__x001b_</v>
+        <v>_x0017__x0013__x0018__x0019_</v>
       </c>
       <c r="AH2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AI2" t="str">
-        <v>_x001c__x001d__x000d__x001e_</v>
+        <v>_x0017__x0016__x001a_</v>
       </c>
       <c r="AJ2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AK2" t="str">
-        <v xml:space="preserve">_x001f__x0015_ </v>
+        <v>_x0019__x000c__x0011_</v>
       </c>
       <c r="AL2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AM2" t="str">
+        <v xml:space="preserve">:  </v>
+      </c>
+      <c r="AM2" t="str" xml:space="preserve">
+        <v xml:space="preserve">)_x0004_*
+_x0008_</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>1100</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="AP2" t="str">
+        <v xml:space="preserve">:  </v>
+      </c>
+      <c r="AQ2" t="str" xml:space="preserve">
+        <v xml:space="preserve">)_x0004_*
+_x0008_</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>Main Branch</v>
+      </c>
+      <c r="AS2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>:</v>
+      </c>
+      <c r="AU2" t="str" xml:space="preserve">
+        <v xml:space="preserve">%,-_x001c_'
+_x0008_</v>
+      </c>
+      <c r="AV2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004__x0015_._x0014_
+_x0008_</v>
+      </c>
+      <c r="AW2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX2" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0015__x0015_/$
+_x0008_</v>
+      </c>
+      <c r="AY2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>_x0013_._x000d_</v>
+      </c>
+      <c r="BA2" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="BB2" t="str">
+        <v>:</v>
+      </c>
+      <c r="BC2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0003__x000e__x0015__x001e_
+_x0008_</v>
+      </c>
+      <c r="BD2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="BE2" t="str">
+        <v xml:space="preserve">: </v>
+      </c>
+      <c r="BF2" t="str" xml:space="preserve">
+        <v xml:space="preserve">0_x0015_'/
+_x0008_</v>
+      </c>
+      <c r="BG2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004__x0015_._x0014_
+_x0008_</v>
+      </c>
+      <c r="BH2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI2" t="str">
+        <v>1_x0014_&amp;_x0012_</v>
+      </c>
+      <c r="BJ2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK2" t="str">
+        <v>1._x0017_</v>
+      </c>
+      <c r="BL2" t="str">
+        <v xml:space="preserve">: </v>
+      </c>
+      <c r="BM2" t="str" xml:space="preserve">
+        <v xml:space="preserve">23_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="BN2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO2" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="BP2" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="BQ2" t="str">
+        <v>0_x0015__x0016__x001e__x000d_</v>
+      </c>
+      <c r="BR2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS2" t="str">
+        <v>43352</v>
+      </c>
+      <c r="BT2" t="str">
+        <v>:</v>
+      </c>
+      <c r="BU2" t="str" xml:space="preserve">
+        <v xml:space="preserve">4_x0008__x000c__x001c_/
+_x0008_</v>
+      </c>
+      <c r="BV2" t="str">
+        <v>"5_x000c_+_x0019_</v>
+      </c>
+      <c r="BW2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BX2" t="str">
+        <v>6</v>
+      </c>
+      <c r="BY2" t="str">
         <v>_x0019__x000c__x0011_</v>
       </c>
-      <c r="AN2" t="str">
-        <v xml:space="preserve">:  </v>
-      </c>
-      <c r="AO2" t="str" xml:space="preserve">
-        <v xml:space="preserve">)_x0004_*
-_x0008_</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>1100</v>
-      </c>
-      <c r="AQ2" t="str">
+      <c r="BZ2" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="CA2" t="str">
         <v>_x0001_+_x0008_</v>
       </c>
-      <c r="AR2" t="str">
-        <v xml:space="preserve">:  </v>
-      </c>
-      <c r="AS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">)_x0004_*
-_x0008_</v>
-      </c>
-      <c r="AT2" t="str">
-        <v>Main Branch</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>:</v>
-      </c>
-      <c r="AW2" t="str" xml:space="preserve">
-        <v xml:space="preserve">%,-_x001c_'
-_x0008_</v>
-      </c>
-      <c r="AX2" t="str">
-        <v>!_x000e__x0017__x000c_&amp;.</v>
-      </c>
-      <c r="AY2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ2" t="str">
-        <v>/_x000c_+_x0019_</v>
-      </c>
-      <c r="BA2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB2" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0015__x0015_0$
-_x0008_</v>
-      </c>
-      <c r="BC2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BD2" t="str">
-        <v>_x0013_1_x000d_</v>
-      </c>
-      <c r="BE2" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="BF2" t="str">
-        <v>:</v>
-      </c>
-      <c r="BG2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0003__x000e__x0015__x001e_
-_x0008_</v>
-      </c>
-      <c r="BH2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="BI2" t="str">
-        <v xml:space="preserve">: </v>
-      </c>
-      <c r="BJ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">2_x0015_'0
-_x0008_</v>
-      </c>
-      <c r="BK2" t="str">
-        <v>!_x000e__x0017__x000c_&amp;.</v>
-      </c>
-      <c r="BL2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BM2" t="str">
-        <v>/_x000c_+_x0019_</v>
-      </c>
-      <c r="BN2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BO2" t="str">
-        <v>%,_x0004_3</v>
-      </c>
-      <c r="BP2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BQ2" t="str">
-        <v>_x0013__x0017_4</v>
-      </c>
-      <c r="BR2" t="str">
-        <v xml:space="preserve">: </v>
-      </c>
-      <c r="BS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">56_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="BT2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BU2" t="str">
-        <v>_x0001_+_x0008_</v>
-      </c>
-      <c r="BV2" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="BW2" t="str">
-        <v>2_x0015__x0016__x001e__x000d_</v>
-      </c>
-      <c r="BX2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BY2" t="str">
-        <v>4963</v>
-      </c>
-      <c r="BZ2" t="str">
-        <v>:</v>
-      </c>
-      <c r="CA2" t="str" xml:space="preserve">
-        <v xml:space="preserve">7_x0008__x000c__x001c_0
-_x0008_</v>
-      </c>
-      <c r="CB2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
-_x0008_</v>
-      </c>
-      <c r="CC2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="CD2" t="str">
-        <v>_x0010__x0017__x0003_-_x001c_9+_x0008_</v>
-      </c>
-      <c r="CE2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="CF2" t="str">
-        <v>5_x0017__x0004_:</v>
-      </c>
-      <c r="CG2" t="str">
-        <v xml:space="preserve"> 60 </v>
-      </c>
-      <c r="CH2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000c_&amp;_x0015_9
-_x0008_</v>
-      </c>
-      <c r="CI2" t="str">
-        <v>_x0019__x000c__x0011_</v>
+      <c r="CB2" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="CC2" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="CD2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-8_x000c_
+_x0008_</v>
+      </c>
+      <c r="CE2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_/
+_x0008_</v>
+      </c>
+      <c r="CF2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'9
+_x0008_</v>
+      </c>
+      <c r="CG2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004_/_x001e_
+_x0008_</v>
+      </c>
+      <c r="CH2" t="str">
+        <v>_x0004_/+</v>
+      </c>
+      <c r="CI2" t="str" xml:space="preserve">
+        <v xml:space="preserve">:&amp;;$_x001e_'
+_x0008_</v>
       </c>
       <c r="CJ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CK2" t="str">
-        <v>_x0001_+_x0008_</v>
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
+      </c>
+      <c r="CK2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
       </c>
       <c r="CL2" t="str">
-        <v xml:space="preserve">    </v>
+        <v>=_x000f__x000e_&gt;?_x0008_</v>
       </c>
       <c r="CM2" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CN2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b_-._x000c_
-_x0008_</v>
-      </c>
-      <c r="CO2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x000c__x0014_0
-_x0008_</v>
-      </c>
-      <c r="CP2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_'9
-_x0008_</v>
-      </c>
-      <c r="CQ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0004_0_x001e_
-_x0008_</v>
-      </c>
-      <c r="CR2" t="str">
-        <v>_x0004_0+</v>
-      </c>
-      <c r="CS2" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;&amp;=$_x001e_'
-_x0008_</v>
-      </c>
-      <c r="CT2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="CU2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="CV2" t="str">
-        <v>?_x000f__x000e_@4_x0008_</v>
-      </c>
-      <c r="CW2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-      <c r="CX2" t="str">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+      <c r="CN2" t="str">
         <v>%</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
 _x0008_</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
-_x000e_'3_x0008_</v>
+        <v xml:space="preserve">=
+_x000e_'A_x0008_</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2_x0005__x000e__x0012_</v>
+        <v>0_x0005__x000e__x0012_</v>
       </c>
     </row>
     <row r="6">
@@ -762,1676 +733,4347 @@
         <v>C</v>
       </c>
       <c r="B8" t="str">
-        <v>96304</v>
+        <v>96663</v>
       </c>
       <c r="C8" t="str">
-        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
+        <v>_x0013__x0017__x000c_+</v>
       </c>
       <c r="D8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;_x0015__x0011_</v>
+        <v>"_x0014__x0015__x0012_</v>
       </c>
       <c r="F8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+        <v>D_x0015_E</v>
       </c>
       <c r="H8" t="str">
-        <v>)</v>
+        <v xml:space="preserve">15 </v>
       </c>
       <c r="I8" t="str">
-        <v xml:space="preserve"> 24 *</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="J8" t="str">
-        <v>/</v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="K8" t="str">
-        <v xml:space="preserve"> 12 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>1&amp;_x0015__x0012_</v>
       </c>
       <c r="M8" t="str">
-        <v>D</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="N8" t="str">
-        <v xml:space="preserve"> 1</v>
+        <v>CAR</v>
       </c>
       <c r="O8" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve">    15</v>
       </c>
       <c r="P8" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve"> 675</v>
       </c>
       <c r="Q8" t="str">
-        <v xml:space="preserve"> 15</v>
+        <v xml:space="preserve"> 67.75</v>
       </c>
       <c r="R8" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v>G</v>
       </c>
       <c r="S8" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="T8" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="U8" t="str">
-        <v>-201.60</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="V8" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="W8" t="str">
+        <v>3,201.19</v>
+      </c>
+      <c r="X8" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y8" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Z8" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> 150.40</v>
+        <v>2,025.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3,158.4</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
+        <v>.42,530</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 06</v>
       </c>
       <c r="B11" t="str">
-        <v>96307</v>
+        <v>96663</v>
       </c>
       <c r="C11" t="str">
-        <v>_x0004__x0015_F</v>
+        <v>_x0013__x0017__x000c_+</v>
       </c>
       <c r="D11" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v>G_x000d_4_x000c_9_x0015__x0012_</v>
+        <v>"_x0014__x0015__x0012_</v>
       </c>
       <c r="F11" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
-      </c>
-      <c r="H11" t="str" xml:space="preserve">
-        <v xml:space="preserve">H_x000c_=_x001a_
-_x0008_</v>
+        <v>D_x0015_E</v>
+      </c>
+      <c r="H11" t="str">
+        <v xml:space="preserve">15 </v>
       </c>
       <c r="I11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="J11" t="str">
-        <v>_x0001_0_x001b_I</v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="K11" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="L11" t="str">
-        <v>"_x001b_J_x0005_</v>
+        <v>1&amp;_x0015__x0012_</v>
       </c>
       <c r="M11" t="str">
-        <v>1</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="N11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>CAR</v>
       </c>
       <c r="O11" t="str">
-        <v>D</v>
+        <v xml:space="preserve">    15</v>
       </c>
       <c r="P11" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> 252</v>
       </c>
       <c r="Q11" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve"> 67.75</v>
       </c>
       <c r="R11" t="str">
-        <v xml:space="preserve">     1</v>
+        <v>G</v>
       </c>
       <c r="S11" t="str">
-        <v xml:space="preserve"> 25</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="T11" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="U11" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="V11" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve"> 15*</v>
       </c>
       <c r="W11" t="str">
-        <v>-336.00</v>
+        <v>1,195.11</v>
       </c>
       <c r="X11" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y11" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="Z11" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> 250.67</v>
+        <v xml:space="preserve"> 756.09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>5,264.0</v>
+        <v>.15,877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 89</v>
       </c>
       <c r="B14" t="str">
-        <v>96304</v>
+        <v>96621</v>
       </c>
       <c r="C14" t="str">
-        <v>_x0010__x000d_4_x000c_9_x0015__x0012_</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;_x0015__x0011_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve"> </v>
+        <v>_x0010__x001b__x0012_</v>
       </c>
       <c r="G14" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
-        <v>)</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="I14" t="str">
-        <v xml:space="preserve"> 24 *</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J14" t="str">
-        <v>/</v>
+        <v xml:space="preserve"> 15</v>
       </c>
       <c r="K14" t="str">
-        <v xml:space="preserve"> 12 </v>
+        <v>CAR</v>
       </c>
       <c r="L14" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">    15</v>
       </c>
       <c r="M14" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 437</v>
       </c>
       <c r="N14" t="str">
-        <v xml:space="preserve"> 1</v>
+        <v xml:space="preserve"> 67.75</v>
       </c>
       <c r="O14" t="str">
-        <v>CAR</v>
+        <v>G</v>
       </c>
       <c r="P14" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="Q14" t="str">
-        <v xml:space="preserve"> 75</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="R14" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="S14" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> 15*</v>
       </c>
       <c r="T14" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v>2,072.47</v>
       </c>
       <c r="U14" t="str">
-        <v>1,008.00</v>
+        <v>-</v>
       </c>
       <c r="V14" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="W14" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="X14" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> 752.00</v>
+        <v>1,311.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>.15,792</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
+        <v>.27,534</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 28</v>
       </c>
       <c r="B17" t="str">
-        <v>96307</v>
+        <v>96612</v>
       </c>
       <c r="C17" t="str">
-        <v>_x0004__x0015_F</v>
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
       </c>
       <c r="D17" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v>G_x000d_4_x000c_9_x0015__x0012_</v>
+        <v>F_x001c__x0014_A</v>
       </c>
       <c r="F17" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v>_x000e__x000d__x0003__x000c__x000d_</v>
-      </c>
-      <c r="H17" t="str" xml:space="preserve">
-        <v xml:space="preserve">H_x000c_=_x001a_
-_x0008_</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H17" t="str">
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I17" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 18 </v>
       </c>
       <c r="J17" t="str">
-        <v>_x0001_0_x001b_I</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="K17" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 3</v>
       </c>
       <c r="L17" t="str">
-        <v>"_x001b_J_x0005_</v>
+        <v>CAR</v>
       </c>
       <c r="M17" t="str">
-        <v>1</v>
+        <v xml:space="preserve">    18</v>
       </c>
       <c r="N17" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 330</v>
       </c>
       <c r="O17" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 48.25</v>
       </c>
       <c r="P17" t="str">
-        <v>1</v>
+        <v>G</v>
       </c>
       <c r="Q17" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve">3 </v>
       </c>
       <c r="R17" t="str">
-        <v xml:space="preserve">     1</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="S17" t="str">
-        <v xml:space="preserve"> 50</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="T17" t="str">
-        <v xml:space="preserve"> 224.00</v>
+        <v xml:space="preserve"> 18*</v>
       </c>
       <c r="U17" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>1,114.58</v>
       </c>
       <c r="V17" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v>-</v>
       </c>
       <c r="W17" t="str">
-        <v>-672.00</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="X17" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="Y17" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> 501.33</v>
+        <v xml:space="preserve"> 705.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>.10,528</v>
+        <v>.14,807</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 92</v>
       </c>
       <c r="B20" t="str">
-        <v>96237</v>
+        <v>96655</v>
       </c>
       <c r="C20" t="str">
-        <v>*</v>
+        <v>0I</v>
       </c>
       <c r="D20" t="str">
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v xml:space="preserve"> 12</v>
+        <v>"_x0014__x0015__x0012_</v>
       </c>
       <c r="F20" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>D_x0015_E</v>
       </c>
       <c r="H20" t="str">
-        <v>D</v>
+        <v xml:space="preserve">18 </v>
       </c>
       <c r="I20" t="str">
-        <v xml:space="preserve"> 2 </v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="J20" t="str">
-        <v>,K_x0015_&amp;I</v>
+        <v xml:space="preserve"> 3</v>
       </c>
       <c r="K20" t="str">
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L20" t="str">
-        <v xml:space="preserve"> 12</v>
+        <v>J&amp;_x0005_,</v>
       </c>
       <c r="M20" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="N20" t="str">
         <v>CAR</v>
       </c>
-      <c r="N20" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
       <c r="O20" t="str">
-        <v xml:space="preserve"> 75</v>
+        <v xml:space="preserve">    18</v>
       </c>
       <c r="P20" t="str">
-        <v xml:space="preserve"> 228.00</v>
+        <v xml:space="preserve"> 330</v>
       </c>
       <c r="Q20" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 48.25</v>
       </c>
       <c r="R20" t="str">
-        <v xml:space="preserve">2 </v>
+        <v>G</v>
       </c>
       <c r="S20" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve">3 </v>
       </c>
       <c r="T20" t="str">
-        <v>12*12</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="U20" t="str">
-        <v>1,026.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="V20" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="W20" t="str">
+        <v>1,114.58</v>
+      </c>
+      <c r="X20" t="str">
         <v>-</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Y20" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="X20" t="str">
+      <c r="Z20" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve"> 765.43</v>
+        <v xml:space="preserve"> 705.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>.16,074</v>
+        <v>.14,807</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 92</v>
       </c>
       <c r="B23" t="str">
-        <v>96245</v>
+        <v>96650</v>
       </c>
       <c r="C23" t="str">
-        <v>L_x000e_*_x000d_</v>
+        <v xml:space="preserve">3 </v>
       </c>
       <c r="D23" t="str">
+        <v>_x0001_K_x000e_'K</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F23" t="str">
+        <v>"_x0014__x0015__x0012_</v>
+      </c>
+      <c r="G23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H23" t="str">
+        <v>D_x0015_E</v>
+      </c>
+      <c r="I23" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J23" t="str">
+        <v xml:space="preserve"> 18 </v>
+      </c>
+      <c r="K23" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="L23" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M23" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N23" t="str">
+        <v xml:space="preserve"> 556</v>
+      </c>
+      <c r="O23" t="str">
+        <v xml:space="preserve"> 48.25</v>
+      </c>
+      <c r="P23" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q23" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="R23" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S23" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T23" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U23" t="str">
+        <v>1,877.89</v>
+      </c>
+      <c r="V23" t="str">
         <v>-</v>
       </c>
-      <c r="E23" t="str">
-        <v>M_x000c_$3_x000e__x0014_+_x0008_</v>
-      </c>
-      <c r="F23" t="str">
-        <v xml:space="preserve">12 </v>
-      </c>
-      <c r="G23" t="str">
-        <v>D</v>
-      </c>
-      <c r="H23" t="str">
-        <v>1</v>
-      </c>
-      <c r="I23" t="str">
-        <v>_x0004_AN_x0006_</v>
-      </c>
-      <c r="J23" t="str">
-        <v>G0_x001b__x0002_</v>
-      </c>
-      <c r="K23" t="str">
-        <v>12*</v>
-      </c>
-      <c r="L23" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
-      </c>
-      <c r="M23" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="N23" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="O23" t="str">
-        <v xml:space="preserve"> 25</v>
-      </c>
-      <c r="P23" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>D</v>
-      </c>
-      <c r="R23" t="str">
-        <v xml:space="preserve">1 </v>
-      </c>
-      <c r="S23" t="str">
-        <v>_x0010_E_x000f_</v>
-      </c>
-      <c r="T23" t="str">
-        <v>12*12</v>
-      </c>
-      <c r="U23" t="str">
-        <v>-171.00</v>
-      </c>
-      <c r="V23" t="str">
+      <c r="W23" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="W23" t="str">
-        <v>14</v>
+      <c r="X23" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v>1,188.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2,679.0</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
+        <v>.24,949</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 11</v>
       </c>
       <c r="B26" t="str">
-        <v>96246</v>
+        <v>96604</v>
       </c>
       <c r="C26" t="str">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="F26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G26" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="H26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I26" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J26" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K26" t="str">
+        <v xml:space="preserve"> 18 </v>
+      </c>
+      <c r="L26" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M26" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N26" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="O26" t="str">
+        <v xml:space="preserve"> 790</v>
+      </c>
+      <c r="P26" t="str">
+        <v xml:space="preserve"> 32.25</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>G</v>
+      </c>
+      <c r="R26" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="S26" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T26" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="U26" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="V26" t="str">
+        <v>1,783.43</v>
+      </c>
+      <c r="W26" t="str">
         <v>-</v>
       </c>
-      <c r="D26" t="str">
-        <v>M_x000c_$3_x000e__x0014_+_x0008_</v>
-      </c>
-      <c r="E26" t="str">
-        <v xml:space="preserve">12 </v>
-      </c>
-      <c r="F26" t="str">
-        <v>D</v>
-      </c>
-      <c r="G26" t="str">
-        <v>1</v>
-      </c>
-      <c r="H26" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010_
-,_x0008__x0004__x000f_</v>
-      </c>
-      <c r="I26" t="str">
-        <v>G0_x001b__x0002_</v>
-      </c>
-      <c r="J26" t="str">
-        <v>12*</v>
-      </c>
-      <c r="K26" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
-      </c>
-      <c r="L26" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="M26" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="N26" t="str">
-        <v xml:space="preserve"> 50</v>
-      </c>
-      <c r="O26" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="P26" t="str">
-        <v>D</v>
-      </c>
-      <c r="Q26" t="str">
-        <v xml:space="preserve">1 </v>
-      </c>
-      <c r="R26" t="str">
-        <v>_x0010_E_x000f_</v>
-      </c>
-      <c r="S26" t="str">
-        <v>12*12</v>
-      </c>
-      <c r="T26" t="str">
-        <v>-342.00</v>
-      </c>
-      <c r="U26" t="str">
+      <c r="X26" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="V26" t="str">
-        <v>14</v>
+      <c r="Y26" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v>1,128.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>5,358.0</v>
+        <v>.23,694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 07</v>
       </c>
       <c r="B29" t="str">
-        <v>96252</v>
+        <v>96602</v>
       </c>
       <c r="C29" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
       </c>
       <c r="D29" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E29" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>F_x001c__x0014_A</v>
       </c>
       <c r="F29" t="str">
-        <v>_x0003__x000e_$+</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G29" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="H29" t="str">
-        <v>12*</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I29" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v xml:space="preserve"> 18 </v>
       </c>
       <c r="J29" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K29" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="L29" t="str">
         <v>CAR</v>
       </c>
-      <c r="K29" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="L29" t="str">
-        <v xml:space="preserve"> 25</v>
-      </c>
       <c r="M29" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve">    18</v>
       </c>
       <c r="N29" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 728</v>
       </c>
       <c r="O29" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> 32.25</v>
       </c>
       <c r="P29" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v>G</v>
       </c>
       <c r="Q29" t="str">
-        <v>12*12</v>
+        <v xml:space="preserve">2 </v>
       </c>
       <c r="R29" t="str">
-        <v>-171.00</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="S29" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T29" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U29" t="str">
+        <v>1,643.46</v>
+      </c>
+      <c r="V29" t="str">
+        <v>-</v>
+      </c>
+      <c r="W29" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T29" t="str">
-        <v>14</v>
+      <c r="X29" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v xml:space="preserve"> 329.00</v>
+        <v>1,039.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2,679.0</v>
+        <v>.21,834</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 54</v>
       </c>
       <c r="B32" t="str">
-        <v>96253</v>
+        <v>96643</v>
       </c>
       <c r="C32" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>_x0013__x0017__x000c_+</v>
       </c>
       <c r="D32" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E32" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>"_x0014__x0015__x0012_</v>
       </c>
       <c r="F32" t="str">
-        <v>_x0018__x0004__x0016__x001c__x0015__x000f_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G32" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v>D_x0015_E</v>
       </c>
       <c r="H32" t="str">
-        <v>12*</v>
+        <v xml:space="preserve">18 </v>
       </c>
       <c r="I32" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="J32" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="K32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L32" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="M32" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="N32" t="str">
         <v>CAR</v>
       </c>
-      <c r="K32" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="L32" t="str">
-        <v xml:space="preserve"> 75</v>
-      </c>
-      <c r="M32" t="str">
-        <v xml:space="preserve"> 114.00</v>
-      </c>
-      <c r="N32" t="str">
-        <v>D</v>
-      </c>
       <c r="O32" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve">    18</v>
       </c>
       <c r="P32" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve"> 642</v>
       </c>
       <c r="Q32" t="str">
-        <v>12*12</v>
+        <v xml:space="preserve"> 32.25</v>
       </c>
       <c r="R32" t="str">
-        <v>-513.00</v>
+        <v>G</v>
       </c>
       <c r="S32" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="T32" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U32" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V32" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="W32" t="str">
+        <v>1,449.32</v>
+      </c>
+      <c r="X32" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y32" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T32" t="str">
+      <c r="Z32" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve"> 382.71</v>
+        <v xml:space="preserve"> 916.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>8,037.0</v>
+        <v>.19,255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 18</v>
       </c>
       <c r="B35" t="str">
-        <v>96254</v>
+        <v>96621</v>
       </c>
       <c r="C35" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="D35" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="E35" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F35" t="str">
-        <v>"_x000d__x000c__x0012_</v>
+        <v>_x0010__x001b__x0012_</v>
       </c>
       <c r="G35" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H35" t="str">
-        <v>12*</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="I35" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J35" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="K35" t="str">
         <v>CAR</v>
       </c>
-      <c r="K35" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
       <c r="L35" t="str">
-        <v xml:space="preserve"> 50</v>
+        <v xml:space="preserve">    15</v>
       </c>
       <c r="M35" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve"> 520</v>
       </c>
       <c r="N35" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 67.75</v>
       </c>
       <c r="O35" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>G</v>
       </c>
       <c r="P35" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="Q35" t="str">
-        <v>12*12</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="R35" t="str">
-        <v>-342.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="S35" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="T35" t="str">
+        <v>2,466.10</v>
+      </c>
+      <c r="U35" t="str">
+        <v>-</v>
+      </c>
+      <c r="V35" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T35" t="str">
-        <v>14</v>
+      <c r="W35" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v>1,560.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>5,358.0</v>
+        <v>.32,763</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 90</v>
       </c>
       <c r="B38" t="str">
-        <v>96259</v>
+        <v>96630</v>
       </c>
       <c r="C38" t="str">
-        <v>O&amp;_x0015_3</v>
+        <v>8</v>
       </c>
       <c r="D38" t="str">
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E38" t="str">
-        <v>_x000c__x0016__x001c__x0015_3</v>
+        <v>_x0001_K_x000e_'K</v>
       </c>
       <c r="F38" t="str">
-        <v xml:space="preserve">12 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G38" t="str">
-        <v>D</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="H38" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I38" t="str">
-        <v xml:space="preserve"> </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J38" t="str">
-        <v>4_x000c__x0011_</v>
+        <v xml:space="preserve"> 10 </v>
       </c>
       <c r="K38" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="L38" t="str">
-        <v>12*</v>
+        <v>CAR</v>
       </c>
       <c r="M38" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v xml:space="preserve">    10</v>
       </c>
       <c r="N38" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve"> 70</v>
       </c>
       <c r="O38" t="str">
-        <v xml:space="preserve">     1</v>
+        <v xml:space="preserve"> 71.75</v>
       </c>
       <c r="P38" t="str">
-        <v xml:space="preserve"> 50</v>
+        <v>G</v>
       </c>
       <c r="Q38" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve">8 </v>
       </c>
       <c r="R38" t="str">
-        <v>D</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="S38" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="T38" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve"> 10*</v>
       </c>
       <c r="U38" t="str">
-        <v>12*12</v>
+        <v>-351.58</v>
       </c>
       <c r="V38" t="str">
-        <v>-342.00</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="W38" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="X38" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v xml:space="preserve"> 222.42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>5,358.0</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
+        <v>4,670.9</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="str">
-        <v xml:space="preserve"> 0</v>
-      </c>
-      <c r="B41" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
-_x000e_'34_x0008_</v>
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B41" t="str">
+        <v>96634</v>
       </c>
       <c r="C41" t="str">
-        <v>7,518.60</v>
+        <v>8</v>
       </c>
       <c r="D41" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E41" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="F41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G41" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="H41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I41" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J41" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K41" t="str">
+        <v xml:space="preserve"> 10 </v>
+      </c>
+      <c r="L41" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M41" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N41" t="str">
+        <v xml:space="preserve">    10</v>
+      </c>
+      <c r="O41" t="str">
+        <v xml:space="preserve"> 70</v>
+      </c>
+      <c r="P41" t="str">
+        <v xml:space="preserve"> 71.75</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>G</v>
+      </c>
+      <c r="R41" t="str">
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="S41" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T41" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="U41" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="V41" t="str">
+        <v>-351.58</v>
+      </c>
+      <c r="W41" t="str">
         <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X41" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>8,429.11</v>
+        <v xml:space="preserve"> 222.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>117,791</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>4,670.9</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
       <c r="A44" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">=
+_x000e_'A?_x0008_</v>
+      </c>
+      <c r="C44" t="str">
+        <v>50,539.6</v>
+      </c>
+      <c r="D44" t="str">
+        <v>-0</v>
+      </c>
+      <c r="E44" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>33,979.9</v>
+      </c>
+      <c r="B45" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>671,453</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
         <v xml:space="preserve"> .40</v>
       </c>
     </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str">
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
         <v>205/050/743</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B49" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="C46" t="str" xml:space="preserve">
+      <c r="C49" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
 </v>
       </c>
-      <c r="D46" t="str" xml:space="preserve">
+      <c r="D49" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000b__x000c_
 _x000d__x000e__x000f_</v>
       </c>
     </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str" xml:space="preserve">
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
 </v>
       </c>
-      <c r="B47" t="str">
+      <c r="B50" t="str">
+        <v>4</v>
+      </c>
+      <c r="C50" t="str">
+        <v>/</v>
+      </c>
+      <c r="D50" t="str">
         <v>2</v>
       </c>
-      <c r="C47" t="str">
-        <v>/</v>
-      </c>
-      <c r="D47" t="str">
-        <v>2</v>
-      </c>
-      <c r="E47" t="str">
+      <c r="E50" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F50" t="str">
         <v>_x0004__x0005__x0006_</v>
       </c>
-      <c r="G47" t="str" xml:space="preserve">
+      <c r="G50" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0007__x0008__x0004_	
 _x0008_</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H50" t="str">
         <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
       </c>
-      <c r="I47" t="str">
+      <c r="I50" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="J47" t="str">
-        <v>421160613</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="J50" t="str">
+        <v>421216985</v>
+      </c>
+      <c r="K50" t="str">
         <v>_x0010__x0011__x0004__x0012_</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L50" t="str">
         <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M50" t="str">
         <v>_x0018__x0019__x000c__x000f_</v>
       </c>
-      <c r="N47" t="str">
+      <c r="N50" t="str">
         <v>_x0010__x001a__x001b__x001c__x0005_</v>
       </c>
-      <c r="O47" t="str">
+      <c r="O50" t="str">
         <v>_x001d__x0003__x000e__x0014__x0005_</v>
       </c>
-      <c r="P47" t="str">
+      <c r="P50" t="str">
         <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
       </c>
-      <c r="Q47" t="str">
+      <c r="Q50" t="str">
         <v>-</v>
       </c>
-      <c r="R47" t="str" xml:space="preserve">
+      <c r="R50" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
 _x0008_</v>
       </c>
-      <c r="S47" t="str">
+      <c r="S50" t="str">
         <v>!</v>
       </c>
-      <c r="T47" t="str">
+      <c r="T50" t="str">
         <v>048\590050-590051</v>
       </c>
-      <c r="U47" t="str">
+      <c r="U50" t="str">
         <v>"_x0011__x000e__x000f_</v>
       </c>
-      <c r="V47" t="str">
+      <c r="V50" t="str">
         <v>048\590052</v>
       </c>
-      <c r="W47" t="str">
+      <c r="W50" t="str">
         <v>_x0019__x000c__x0011_</v>
       </c>
-      <c r="X47" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="Y47" t="str">
+      <c r="X50" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="Y50" t="str">
         <v>_x0001_+_x0008_</v>
       </c>
-      <c r="Z47" t="str">
+      <c r="Z50" t="str">
         <v xml:space="preserve">    </v>
       </c>
-      <c r="AA47" t="str" xml:space="preserve">
-        <v xml:space="preserve">;_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="AB47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b_-._x000c_
-_x0008_</v>
-      </c>
-      <c r="AC47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x000c__x0014_0
-_x0008_</v>
-      </c>
-      <c r="AD47" t="str" xml:space="preserve">
+      <c r="AA50" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="AB50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-8_x000c_
+_x0008_</v>
+      </c>
+      <c r="AC50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_/
+_x0008_</v>
+      </c>
+      <c r="AD50" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0015_'9
 _x0008_</v>
       </c>
-      <c r="AE47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0004_0_x001e_
-_x0008_</v>
-      </c>
-      <c r="AF47" t="str">
-        <v>_x0004_0+</v>
-      </c>
-      <c r="AG47" t="str" xml:space="preserve">
-        <v xml:space="preserve">&lt;&amp;=$_x001e_'
-_x0008_</v>
-      </c>
-      <c r="AH47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="AI47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &gt;
-_x0008_</v>
-      </c>
-      <c r="AJ47" t="str">
-        <v>?_x000f__x000e_@4_x0008_</v>
-      </c>
-      <c r="AK47" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-      <c r="AL47" t="str">
+      <c r="AE50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004_/_x001e_
+_x0008_</v>
+      </c>
+      <c r="AF50" t="str">
+        <v>_x0004_/+</v>
+      </c>
+      <c r="AG50" t="str" xml:space="preserve">
+        <v xml:space="preserve">:&amp;;$_x001e_'
+_x0008_</v>
+      </c>
+      <c r="AH50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
+      </c>
+      <c r="AI50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
+      </c>
+      <c r="AJ50" t="str">
+        <v>=_x000f__x000e_&gt;?_x0008_</v>
+      </c>
+      <c r="AK50" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+      <c r="AL50" t="str">
         <v>%</v>
       </c>
     </row>
-    <row r="48" xml:space="preserve">
-      <c r="A48" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
-      <c r="A49" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
-_x000e_'3_x0008_</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>2_x0005__x000e__x0012_</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>B</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>.</v>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str" xml:space="preserve">
+        <v xml:space="preserve">=
+_x000e_'A_x0008_</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>C</v>
-      </c>
-      <c r="B53" t="str">
-        <v>96237</v>
-      </c>
-      <c r="C53" t="str">
-        <v>*</v>
-      </c>
-      <c r="D53" t="str">
-        <v>/</v>
-      </c>
-      <c r="E53" t="str">
-        <v xml:space="preserve"> 12</v>
-      </c>
-      <c r="F53" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G53" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H53" t="str">
-        <v>D</v>
-      </c>
-      <c r="I53" t="str">
-        <v xml:space="preserve"> 2 </v>
-      </c>
-      <c r="J53" t="str">
-        <v>,K_x0015_&amp;I</v>
-      </c>
-      <c r="K53" t="str">
-        <v>)</v>
-      </c>
-      <c r="L53" t="str">
-        <v xml:space="preserve"> 12</v>
-      </c>
-      <c r="M53" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="N53" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
-      <c r="O53" t="str">
-        <v xml:space="preserve"> 100</v>
-      </c>
-      <c r="P53" t="str">
-        <v xml:space="preserve"> 228.00</v>
-      </c>
-      <c r="Q53" t="str">
-        <v>D</v>
-      </c>
-      <c r="R53" t="str">
-        <v xml:space="preserve">2 </v>
-      </c>
-      <c r="S53" t="str">
-        <v>_x0010_E_x000f_</v>
-      </c>
-      <c r="T53" t="str">
-        <v>12*12</v>
-      </c>
-      <c r="U53" t="str">
-        <v>1,368.00</v>
-      </c>
-      <c r="V53" t="str">
-        <v>-</v>
-      </c>
-      <c r="W53" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="X53" t="str">
-        <v>5</v>
+        <v>0_x0005__x000e__x0012_</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>1,020.57</v>
+        <v>B</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>.21,432</v>
+        <v>.</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v>C</v>
       </c>
       <c r="B56" t="str">
-        <v>96254</v>
+        <v>96633</v>
       </c>
       <c r="C56" t="str">
-        <v xml:space="preserve">12 </v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="D56" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 8</v>
       </c>
       <c r="E56" t="str">
-        <v xml:space="preserve">1 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F56" t="str">
-        <v>"_x000d__x000c__x0012_</v>
+        <v>%_x000e__x0014__x0011_</v>
       </c>
       <c r="G56" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H56" t="str">
-        <v>12*</v>
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
       </c>
       <c r="I56" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="J56" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="K56" t="str">
         <v>CAR</v>
       </c>
-      <c r="K56" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
       <c r="L56" t="str">
-        <v xml:space="preserve"> 100</v>
+        <v xml:space="preserve">    10</v>
       </c>
       <c r="M56" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve"> 70</v>
       </c>
       <c r="N56" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 71.75</v>
       </c>
       <c r="O56" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>G</v>
       </c>
       <c r="P56" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve">8 </v>
       </c>
       <c r="Q56" t="str">
-        <v>12*12</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="R56" t="str">
-        <v>-684.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="S56" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="T56" t="str">
+        <v>-351.58</v>
+      </c>
+      <c r="U56" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="T56" t="str">
-        <v>14</v>
+      <c r="V56" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>1,316.00</v>
+        <v xml:space="preserve"> 222.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>.10,716</v>
+        <v>4,670.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 2</v>
       </c>
       <c r="B59" t="str">
-        <v>96259</v>
+        <v>96824</v>
       </c>
       <c r="C59" t="str">
-        <v>O&amp;_x0015_3</v>
+        <v>F_x001c__x0014_A</v>
       </c>
       <c r="D59" t="str">
-        <v xml:space="preserve"> - </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E59" t="str">
-        <v>_x000c__x0016__x001c__x0015_3</v>
+        <v>1_x0014_+_x0004__x0011_</v>
       </c>
       <c r="F59" t="str">
-        <v xml:space="preserve">12 </v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G59" t="str">
-        <v>D</v>
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
       </c>
       <c r="H59" t="str">
-        <v>1</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="I59" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> 5 </v>
       </c>
       <c r="J59" t="str">
-        <v>4_x000c__x0011_</v>
+        <v>_x0004_'8_x0008_</v>
       </c>
       <c r="K59" t="str">
-        <v>G0_x001b__x0002_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L59" t="str">
-        <v>12*</v>
+        <v>_x0003_-_x0015__x0012_</v>
       </c>
       <c r="M59" t="str">
-        <v>G_x0014_&amp;_x001f_</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="N59" t="str">
+        <v>9</v>
+      </c>
+      <c r="O59" t="str">
         <v>CAR</v>
       </c>
-      <c r="O59" t="str">
-        <v xml:space="preserve">     1</v>
-      </c>
       <c r="P59" t="str">
-        <v xml:space="preserve"> 50</v>
+        <v xml:space="preserve">     9</v>
       </c>
       <c r="Q59" t="str">
-        <v xml:space="preserve"> 114.00</v>
+        <v xml:space="preserve"> 198</v>
       </c>
       <c r="R59" t="str">
-        <v>D</v>
+        <v xml:space="preserve"> 37.50</v>
       </c>
       <c r="S59" t="str">
-        <v xml:space="preserve">1 </v>
+        <v>G</v>
       </c>
       <c r="T59" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="U59" t="str">
-        <v>12*12</v>
+        <v>_x0010_H_x000f_</v>
       </c>
       <c r="V59" t="str">
-        <v>-342.00</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="W59" t="str">
+        <v xml:space="preserve"> 9*</v>
+      </c>
+      <c r="X59" t="str">
+        <v>-519.75</v>
+      </c>
+      <c r="Y59" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="X59" t="str">
-        <v>14</v>
+      <c r="Z59" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve"> 658.00</v>
+        <v xml:space="preserve"> 328.82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>5,358.0</v>
-      </c>
-    </row>
-    <row r="62" xml:space="preserve">
+        <v>6,905.2</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="str">
-        <v xml:space="preserve"> 0</v>
-      </c>
-      <c r="B62" t="str" xml:space="preserve">
-        <v xml:space="preserve">?
-_x000e_'34_x0008_</v>
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="B62" t="str">
+        <v>96631</v>
       </c>
       <c r="C62" t="str">
-        <v>7,518.60</v>
+        <v>F_x0015__x001c_A</v>
       </c>
       <c r="D62" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> 8</v>
       </c>
       <c r="E62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F62" t="str">
+        <v>_x0010__x001b__x0012_</v>
+      </c>
+      <c r="G62" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H62" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="I62" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J62" t="str">
+        <v xml:space="preserve"> 10</v>
+      </c>
+      <c r="K62" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="L62" t="str">
+        <v xml:space="preserve">    10</v>
+      </c>
+      <c r="M62" t="str">
+        <v xml:space="preserve"> 60</v>
+      </c>
+      <c r="N62" t="str">
+        <v xml:space="preserve"> 71.75</v>
+      </c>
+      <c r="O62" t="str">
+        <v>G</v>
+      </c>
+      <c r="P62" t="str">
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="Q62" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="R62" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="S62" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="T62" t="str">
+        <v>-301.35</v>
+      </c>
+      <c r="U62" t="str">
         <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V62" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>8,429.11</v>
+        <v xml:space="preserve"> 190.65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>117,791</v>
-      </c>
-    </row>
-    <row r="65" xml:space="preserve">
+        <v>4,003.6</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="B65" t="str">
+        <v>92110</v>
+      </c>
+      <c r="C65" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="D65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E65" t="str">
+        <v>"_x000f__x000e_E</v>
+      </c>
+      <c r="F65" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G65" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H65" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I65" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J65" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K65" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L65" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M65" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="N65" t="str">
+        <v xml:space="preserve"> 1,152</v>
+      </c>
+      <c r="O65" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="P65" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="Q65" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="R65" t="str">
+        <v>3,024.00</v>
+      </c>
+      <c r="S65" t="str">
+        <v>-</v>
+      </c>
+      <c r="T65" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>1,913.14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>.40,176</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B68" t="str">
+        <v>92133</v>
+      </c>
+      <c r="C68" t="str">
+        <v>_x0003__x000e_@I</v>
+      </c>
+      <c r="D68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E68" t="str">
+        <v>"E_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G68" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H68" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I68" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J68" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K68" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L68" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="M68" t="str">
+        <v>_x0003__x000e_8</v>
+      </c>
+      <c r="N68" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O68" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="P68" t="str">
+        <v xml:space="preserve"> 230</v>
+      </c>
+      <c r="Q68" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="R68" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="S68" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T68" t="str">
+        <v>-603.75</v>
+      </c>
+      <c r="U68" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v xml:space="preserve"> 381.96</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>8,021.2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="B71" t="str">
+        <v>92137</v>
+      </c>
+      <c r="C71" t="str">
+        <v>4_x0003__x000c__x0011_</v>
+      </c>
+      <c r="D71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E71" t="str">
+        <v>%_x000c_E</v>
+      </c>
+      <c r="F71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G71" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H71" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I71" t="str">
+        <v>15</v>
+      </c>
+      <c r="J71" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L71" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="M71" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="N71" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O71" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="P71" t="str">
+        <v xml:space="preserve"> 336</v>
+      </c>
+      <c r="Q71" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="R71" t="str">
+        <v>G</v>
+      </c>
+      <c r="S71" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="T71" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U71" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V71" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="W71" t="str">
+        <v>-882.00</v>
+      </c>
+      <c r="X71" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>1,439.05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>.11,718</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v xml:space="preserve"> 00</v>
+      </c>
+      <c r="B74" t="str">
+        <v>96521</v>
+      </c>
+      <c r="C74" t="str">
+        <v>_x0003__x000e_@I</v>
+      </c>
+      <c r="D74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E74" t="str">
+        <v>"E_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G74" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H74" t="str">
+        <v xml:space="preserve">18 </v>
+      </c>
+      <c r="I74" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="J74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L74" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="M74" t="str">
+        <v>_x0003__x000e_8</v>
+      </c>
+      <c r="N74" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O74" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="P74" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="Q74" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="R74" t="str">
+        <v xml:space="preserve"> 521</v>
+      </c>
+      <c r="S74" t="str">
+        <v xml:space="preserve"> 31.00</v>
+      </c>
+      <c r="T74" t="str">
+        <v>G</v>
+      </c>
+      <c r="U74" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V74" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="W74" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="X74" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>1,130.57</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>-</v>
+      </c>
+      <c r="AA74" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="AB74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v xml:space="preserve"> 715.26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>.15,020</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v xml:space="preserve"> 43</v>
+      </c>
+      <c r="B77" t="str">
+        <v>95223</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1</v>
+      </c>
+      <c r="D77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F77" t="str">
+        <v>_x0008_L$_x0015_E</v>
+      </c>
+      <c r="G77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H77" t="str">
+        <v>M_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="I77" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J77" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="K77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M77" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="N77" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O77" t="str">
+        <v xml:space="preserve">    24</v>
+      </c>
+      <c r="P77" t="str">
+        <v xml:space="preserve"> 160</v>
+      </c>
+      <c r="Q77" t="str">
+        <v xml:space="preserve"> 20.50</v>
+      </c>
+      <c r="R77" t="str">
+        <v>G</v>
+      </c>
+      <c r="S77" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="T77" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U77" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V77" t="str">
+        <v xml:space="preserve"> 24</v>
+      </c>
+      <c r="W77" t="str">
+        <v>-229.60</v>
+      </c>
+      <c r="X77" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v xml:space="preserve"> 145.26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>3,050.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B80" t="str">
+        <v>92133</v>
+      </c>
+      <c r="C80" t="str">
+        <v>_x0003__x000e_@I</v>
+      </c>
+      <c r="D80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E80" t="str">
+        <v>"E_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G80" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H80" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I80" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J80" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K80" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L80" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="M80" t="str">
+        <v>_x0003__x000e_8</v>
+      </c>
+      <c r="N80" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O80" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="P80" t="str">
+        <v xml:space="preserve"> 740</v>
+      </c>
+      <c r="Q80" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="R80" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="S80" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T80" t="str">
+        <v>1,942.50</v>
+      </c>
+      <c r="U80" t="str">
+        <v>-</v>
+      </c>
+      <c r="V80" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>1,228.93</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>.25,807</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v xml:space="preserve"> 50</v>
+      </c>
+      <c r="B83" t="str">
+        <v>96525</v>
+      </c>
+      <c r="C83" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="D83" t="str">
+        <v>_x000c_&amp;8</v>
+      </c>
+      <c r="E83" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F83" t="str" xml:space="preserve">
+        <v xml:space="preserve">4_x000c_'_x0015_
+</v>
+      </c>
+      <c r="G83" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H83" t="str">
+        <v>N_x0015__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="I83" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J83" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K83" t="str">
+        <v xml:space="preserve"> 18</v>
+      </c>
+      <c r="L83" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M83" t="str">
+        <v>2</v>
+      </c>
+      <c r="N83" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O83" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="P83" t="str">
+        <v xml:space="preserve"> 238</v>
+      </c>
+      <c r="Q83" t="str">
+        <v xml:space="preserve"> 31.00</v>
+      </c>
+      <c r="R83" t="str">
+        <v>G</v>
+      </c>
+      <c r="S83" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="T83" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U83" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V83" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="W83" t="str">
+        <v>-516.46</v>
+      </c>
+      <c r="X83" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v xml:space="preserve"> 326.74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>6,861.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v xml:space="preserve"> 4</v>
+      </c>
+      <c r="B86" t="str">
+        <v>96526</v>
+      </c>
+      <c r="C86" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="D86" t="str">
+        <v>F &amp;O</v>
+      </c>
+      <c r="E86" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F86" t="str">
+        <v>N_x0015__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="G86" t="str">
+        <v>18</v>
+      </c>
+      <c r="H86" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="I86" t="str">
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="J86" t="str">
+        <v>F_x0015_9_x0015__x001e_9_x0015__x0005_</v>
+      </c>
+      <c r="K86" t="str">
+        <v>1_x0011_</v>
+      </c>
+      <c r="L86" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M86" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N86" t="str">
+        <v xml:space="preserve"> 482</v>
+      </c>
+      <c r="O86" t="str">
+        <v xml:space="preserve"> 31.00</v>
+      </c>
+      <c r="P86" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q86" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R86" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S86" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T86" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U86" t="str">
+        <v>1,045.94</v>
+      </c>
+      <c r="V86" t="str">
+        <v>-</v>
+      </c>
+      <c r="W86" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v xml:space="preserve"> 661.72</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>.13,896</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v xml:space="preserve"> 06</v>
+      </c>
+      <c r="B89" t="str">
+        <v>92135</v>
+      </c>
+      <c r="C89" t="str">
+        <v>4_x0003__x000c__x0011_</v>
+      </c>
+      <c r="D89" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E89" t="str">
+        <v>%_x000c_E</v>
+      </c>
+      <c r="F89" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G89" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H89" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="I89" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J89" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="K89" t="str">
+        <v>_x000c__x0015_9_x0015_E_x0003__x000e_E</v>
+      </c>
+      <c r="L89" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="M89" t="str">
+        <v>9</v>
+      </c>
+      <c r="N89" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O89" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="P89" t="str">
+        <v xml:space="preserve"> 429</v>
+      </c>
+      <c r="Q89" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="R89" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="S89" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T89" t="str">
+        <v>1,126.13</v>
+      </c>
+      <c r="U89" t="str">
+        <v>-</v>
+      </c>
+      <c r="V89" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W89" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>1,837.36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>.14,961</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v xml:space="preserve"> 37</v>
+      </c>
+      <c r="B92" t="str">
+        <v>92110</v>
+      </c>
+      <c r="C92" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="D92" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E92" t="str">
+        <v>"_x000f__x000e_E</v>
+      </c>
+      <c r="F92" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G92" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="H92" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I92" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J92" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K92" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L92" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M92" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="N92" t="str">
+        <v xml:space="preserve"> 1,210</v>
+      </c>
+      <c r="O92" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="P92" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="Q92" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="R92" t="str">
+        <v>3,176.25</v>
+      </c>
+      <c r="S92" t="str">
+        <v>-</v>
+      </c>
+      <c r="T92" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2,009.46</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>.42,198</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v xml:space="preserve"> 75</v>
+      </c>
+      <c r="B95" t="str">
+        <v>90580</v>
+      </c>
+      <c r="C95" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="D95" t="str">
+        <v xml:space="preserve"> 1 </v>
+      </c>
+      <c r="E95" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="F95" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G95" t="str">
+        <v>M_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="H95" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I95" t="str">
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="J95" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="K95" t="str">
+        <v xml:space="preserve">    30</v>
+      </c>
+      <c r="L95" t="str">
+        <v xml:space="preserve"> 160</v>
+      </c>
+      <c r="M95" t="str">
+        <v xml:space="preserve"> 26.50</v>
+      </c>
+      <c r="N95" t="str">
+        <v>G</v>
+      </c>
+      <c r="O95" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="P95" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="R95" t="str">
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="S95" t="str">
+        <v>-296.80</v>
+      </c>
+      <c r="T95" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U95" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v xml:space="preserve"> 187.77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>3,943.2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B98" t="str">
+        <v>96526</v>
+      </c>
+      <c r="C98" t="str">
+        <v>_x0003__x0008__x000c_A_x000e_A</v>
+      </c>
+      <c r="D98" t="str">
+        <v>F &amp;O</v>
+      </c>
+      <c r="E98" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F98" t="str">
+        <v>N_x0015__x000d__x0003__x000c__x000d_</v>
+      </c>
+      <c r="G98" t="str">
+        <v>18</v>
+      </c>
+      <c r="H98" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="I98" t="str">
+        <v xml:space="preserve"> 2 </v>
+      </c>
+      <c r="J98" t="str">
+        <v>F_x0015_9_x0015__x001e_9_x0015__x0005_</v>
+      </c>
+      <c r="K98" t="str">
+        <v>1_x0011_</v>
+      </c>
+      <c r="L98" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M98" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N98" t="str">
+        <v xml:space="preserve"> 119</v>
+      </c>
+      <c r="O98" t="str">
+        <v xml:space="preserve"> 31.00</v>
+      </c>
+      <c r="P98" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q98" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R98" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S98" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T98" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U98" t="str">
+        <v>-258.23</v>
+      </c>
+      <c r="V98" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W98" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v xml:space="preserve"> 163.37</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>3,430.7</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="B101" t="str" xml:space="preserve">
+        <v xml:space="preserve">=
+_x000e_'A?_x0008_</v>
+      </c>
+      <c r="C101" t="str">
+        <v>50,539.6</v>
+      </c>
+      <c r="D101" t="str">
+        <v>-0</v>
+      </c>
+      <c r="E101" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>33,979.9</v>
+      </c>
+      <c r="B102" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>671,453</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
         <v xml:space="preserve"> .40</v>
       </c>
-      <c r="B65" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x001f__x000e_A_x0014_
-_x0008_</v>
-      </c>
-      <c r="C65" t="str">
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>205/050/743</v>
+      </c>
+      <c r="B106" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
+</v>
+      </c>
+      <c r="D106" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c_
+_x000d__x000e__x000f_</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
+</v>
+      </c>
+      <c r="B107" t="str">
+        <v>4</v>
+      </c>
+      <c r="C107" t="str">
+        <v>/</v>
+      </c>
+      <c r="D107" t="str">
+        <v>3</v>
+      </c>
+      <c r="E107" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="F107" t="str">
+        <v>_x0004__x0005__x0006_</v>
+      </c>
+      <c r="G107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007__x0008__x0004_	
+_x0008_</v>
+      </c>
+      <c r="H107" t="str">
+        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
+      </c>
+      <c r="I107" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="J107" t="str">
+        <v>421216985</v>
+      </c>
+      <c r="K107" t="str">
+        <v>_x0010__x0011__x0004__x0012_</v>
+      </c>
+      <c r="L107" t="str">
+        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
+      </c>
+      <c r="M107" t="str">
+        <v>_x0018__x0019__x000c__x000f_</v>
+      </c>
+      <c r="N107" t="str">
+        <v>_x0010__x001a__x001b__x001c__x0005_</v>
+      </c>
+      <c r="O107" t="str">
+        <v>_x001d__x0003__x000e__x0014__x0005_</v>
+      </c>
+      <c r="P107" t="str">
+        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
+      </c>
+      <c r="Q107" t="str">
         <v>-</v>
       </c>
-      <c r="D65" t="str" xml:space="preserve">
+      <c r="R107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
+_x0008_</v>
+      </c>
+      <c r="S107" t="str">
+        <v>!</v>
+      </c>
+      <c r="T107" t="str">
+        <v>048\590050-590051</v>
+      </c>
+      <c r="U107" t="str">
+        <v>"_x0011__x000e__x000f_</v>
+      </c>
+      <c r="V107" t="str">
+        <v>048\590052</v>
+      </c>
+      <c r="W107" t="str">
+        <v>_x0019__x000c__x0011_</v>
+      </c>
+      <c r="X107" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="Y107" t="str">
+        <v>_x0001_+_x0008_</v>
+      </c>
+      <c r="Z107" t="str">
+        <v xml:space="preserve">    </v>
+      </c>
+      <c r="AA107" t="str" xml:space="preserve">
+        <v xml:space="preserve">7_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="AB107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-8_x000c_
+_x0008_</v>
+      </c>
+      <c r="AC107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c__x0014_/
+_x0008_</v>
+      </c>
+      <c r="AD107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'9
+_x0008_</v>
+      </c>
+      <c r="AE107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004_/_x001e_
+_x0008_</v>
+      </c>
+      <c r="AF107" t="str">
+        <v>_x0004_/+</v>
+      </c>
+      <c r="AG107" t="str" xml:space="preserve">
+        <v xml:space="preserve">:&amp;;$_x001e_'
+_x0008_</v>
+      </c>
+      <c r="AH107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
+      </c>
+      <c r="AI107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ &lt;
+_x0008_</v>
+      </c>
+      <c r="AJ107" t="str">
+        <v>=_x000f__x000e_&gt;?_x0008_</v>
+      </c>
+      <c r="AK107" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+      <c r="AL107" t="str">
+        <v>%</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str" xml:space="preserve">
+        <v xml:space="preserve">=
+_x000e_'A_x0008_</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>0_x0005__x000e__x0012_</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>.</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>C</v>
+      </c>
+      <c r="B113" t="str">
+        <v>96635</v>
+      </c>
+      <c r="C113" t="str">
+        <v>8</v>
+      </c>
+      <c r="D113" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E113" t="str" xml:space="preserve">
+        <v xml:space="preserve">F/
+_x000c__x0005_</v>
+      </c>
+      <c r="F113" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G113" t="str">
+        <v>F_x001b__x0012_</v>
+      </c>
+      <c r="H113" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I113" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J113" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K113" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="L113" t="str">
+        <v xml:space="preserve"> 10 </v>
+      </c>
+      <c r="M113" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="N113" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O113" t="str">
+        <v xml:space="preserve">    10</v>
+      </c>
+      <c r="P113" t="str">
+        <v xml:space="preserve"> 70</v>
+      </c>
+      <c r="Q113" t="str">
+        <v xml:space="preserve"> 71.75</v>
+      </c>
+      <c r="R113" t="str">
+        <v>G</v>
+      </c>
+      <c r="S113" t="str">
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="T113" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U113" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V113" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="W113" t="str">
+        <v>-351.58</v>
+      </c>
+      <c r="X113" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y113" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v xml:space="preserve"> 222.42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>4,670.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B116" t="str">
+        <v>96600</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2</v>
+      </c>
+      <c r="D116" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E116" t="str">
+        <v>_x0001_K_x000e_'K</v>
+      </c>
+      <c r="F116" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G116" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H116" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I116" t="str">
+        <v xml:space="preserve"> 18</v>
+      </c>
+      <c r="J116" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K116" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="L116" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M116" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N116" t="str">
+        <v xml:space="preserve"> 546</v>
+      </c>
+      <c r="O116" t="str">
+        <v xml:space="preserve"> 32.25</v>
+      </c>
+      <c r="P116" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q116" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R116" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S116" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T116" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U116" t="str">
+        <v>1,232.60</v>
+      </c>
+      <c r="V116" t="str">
+        <v>-</v>
+      </c>
+      <c r="W116" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X116" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v xml:space="preserve"> 779.80</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>.16,375</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v xml:space="preserve"> 90</v>
+      </c>
+      <c r="B119" t="str">
+        <v>96602</v>
+      </c>
+      <c r="C119" t="str">
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D119" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E119" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="F119" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G119" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H119" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I119" t="str">
+        <v xml:space="preserve"> 18 </v>
+      </c>
+      <c r="J119" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K119" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="L119" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M119" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N119" t="str">
+        <v xml:space="preserve"> 358</v>
+      </c>
+      <c r="O119" t="str">
+        <v xml:space="preserve"> 32.25</v>
+      </c>
+      <c r="P119" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q119" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="R119" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S119" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T119" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U119" t="str">
+        <v>-808.19</v>
+      </c>
+      <c r="V119" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W119" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v xml:space="preserve"> 511.30</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>.10,737</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v xml:space="preserve"> 31</v>
+      </c>
+      <c r="B122" t="str">
+        <v>96604</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2</v>
+      </c>
+      <c r="D122" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E122" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="F122" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G122" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="H122" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I122" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J122" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K122" t="str">
+        <v xml:space="preserve"> 18 </v>
+      </c>
+      <c r="L122" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M122" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N122" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="O122" t="str">
+        <v xml:space="preserve"> 842</v>
+      </c>
+      <c r="P122" t="str">
+        <v xml:space="preserve"> 32.25</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>G</v>
+      </c>
+      <c r="R122" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="S122" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T122" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="U122" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="V122" t="str">
+        <v>1,900.82</v>
+      </c>
+      <c r="W122" t="str">
+        <v>-</v>
+      </c>
+      <c r="X122" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y122" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>1,202.56</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>.25,253</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v xml:space="preserve"> 68</v>
+      </c>
+      <c r="B125" t="str">
+        <v>96632</v>
+      </c>
+      <c r="C125" t="str">
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D125" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E125" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="F125" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G125" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H125" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I125" t="str">
+        <v xml:space="preserve"> 10 </v>
+      </c>
+      <c r="J125" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K125" t="str">
+        <v xml:space="preserve"> 8</v>
+      </c>
+      <c r="L125" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M125" t="str">
+        <v xml:space="preserve">    10</v>
+      </c>
+      <c r="N125" t="str">
+        <v xml:space="preserve"> 70</v>
+      </c>
+      <c r="O125" t="str">
+        <v xml:space="preserve"> 71.75</v>
+      </c>
+      <c r="P125" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q125" t="str">
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="R125" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S125" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T125" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="U125" t="str">
+        <v>-351.58</v>
+      </c>
+      <c r="V125" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W125" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v xml:space="preserve"> 222.42</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>4,670.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B128" t="str">
+        <v>96634</v>
+      </c>
+      <c r="C128" t="str">
+        <v>8</v>
+      </c>
+      <c r="D128" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E128" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="F128" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G128" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="H128" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I128" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J128" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K128" t="str">
+        <v xml:space="preserve"> 10 </v>
+      </c>
+      <c r="L128" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M128" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N128" t="str">
+        <v xml:space="preserve">    10</v>
+      </c>
+      <c r="O128" t="str">
+        <v xml:space="preserve"> 130</v>
+      </c>
+      <c r="P128" t="str">
+        <v xml:space="preserve"> 71.75</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>G</v>
+      </c>
+      <c r="R128" t="str">
+        <v xml:space="preserve">8 </v>
+      </c>
+      <c r="S128" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T128" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="U128" t="str">
+        <v xml:space="preserve"> 10*</v>
+      </c>
+      <c r="V128" t="str">
+        <v>-652.93</v>
+      </c>
+      <c r="W128" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X128" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v xml:space="preserve"> 413.07</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>8,674.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v xml:space="preserve"> 7</v>
+      </c>
+      <c r="B131" t="str">
+        <v>96612</v>
+      </c>
+      <c r="C131" t="str">
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D131" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E131" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="F131" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G131" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H131" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I131" t="str">
+        <v xml:space="preserve"> 18 </v>
+      </c>
+      <c r="J131" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K131" t="str">
+        <v xml:space="preserve"> 3</v>
+      </c>
+      <c r="L131" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M131" t="str">
+        <v xml:space="preserve">    18</v>
+      </c>
+      <c r="N131" t="str">
+        <v xml:space="preserve"> 560</v>
+      </c>
+      <c r="O131" t="str">
+        <v xml:space="preserve"> 48.25</v>
+      </c>
+      <c r="P131" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q131" t="str">
+        <v xml:space="preserve">3 </v>
+      </c>
+      <c r="R131" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S131" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T131" t="str">
+        <v xml:space="preserve"> 18*</v>
+      </c>
+      <c r="U131" t="str">
+        <v>1,891.40</v>
+      </c>
+      <c r="V131" t="str">
+        <v>-</v>
+      </c>
+      <c r="W131" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X131" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>1,196.60</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>.25,128</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v xml:space="preserve"> 60</v>
+      </c>
+      <c r="B134" t="str">
+        <v>96624</v>
+      </c>
+      <c r="C134" t="str">
+        <v>5</v>
+      </c>
+      <c r="D134" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E134" t="str">
+        <v>1&amp;_x0015__x0012_</v>
+      </c>
+      <c r="F134" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G134" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="H134" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I134" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J134" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="K134" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="L134" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="M134" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N134" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="O134" t="str">
+        <v xml:space="preserve"> 290</v>
+      </c>
+      <c r="P134" t="str">
+        <v xml:space="preserve"> 67.75</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>G</v>
+      </c>
+      <c r="R134" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="S134" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="T134" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="U134" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="V134" t="str">
+        <v>1,375.33</v>
+      </c>
+      <c r="W134" t="str">
+        <v>-</v>
+      </c>
+      <c r="X134" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Y134" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v xml:space="preserve"> 870.10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>.18,272</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v xml:space="preserve"> 17</v>
+      </c>
+      <c r="B137" t="str">
+        <v>96625</v>
+      </c>
+      <c r="C137" t="str">
+        <v>5</v>
+      </c>
+      <c r="D137" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E137" t="str" xml:space="preserve">
+        <v xml:space="preserve">F/
+_x000c__x0005_</v>
+      </c>
+      <c r="F137" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G137" t="str">
+        <v>F_x001b__x0012_</v>
+      </c>
+      <c r="H137" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I137" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="J137" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K137" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="L137" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="M137" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="N137" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O137" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="P137" t="str">
+        <v xml:space="preserve"> 358</v>
+      </c>
+      <c r="Q137" t="str">
+        <v xml:space="preserve"> 67.75</v>
+      </c>
+      <c r="R137" t="str">
+        <v>G</v>
+      </c>
+      <c r="S137" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="T137" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="U137" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="V137" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="W137" t="str">
+        <v>1,697.82</v>
+      </c>
+      <c r="X137" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y137" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="Z137" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>1,074.13</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>.22,556</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v xml:space="preserve"> 68</v>
+      </c>
+      <c r="B140" t="str">
+        <v>96621</v>
+      </c>
+      <c r="C140" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="D140" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="E140" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F140" t="str">
+        <v>_x0010__x001b__x0012_</v>
+      </c>
+      <c r="G140" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H140" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="I140" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J140" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="K140" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="L140" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="M140" t="str">
+        <v xml:space="preserve"> 128</v>
+      </c>
+      <c r="N140" t="str">
+        <v xml:space="preserve"> 67.75</v>
+      </c>
+      <c r="O140" t="str">
+        <v>G</v>
+      </c>
+      <c r="P140" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="Q140" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="R140" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="S140" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="T140" t="str">
+        <v>-607.04</v>
+      </c>
+      <c r="U140" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V140" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v xml:space="preserve"> 384.05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>8,064.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v xml:space="preserve"> 6</v>
+      </c>
+      <c r="B143" t="str">
+        <v>96620</v>
+      </c>
+      <c r="C143" t="str">
+        <v>5</v>
+      </c>
+      <c r="D143" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E143" t="str">
+        <v>_x0001_K_x000e_'K</v>
+      </c>
+      <c r="F143" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G143" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H143" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I143" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J143" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="K143" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="L143" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M143" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N143" t="str">
+        <v xml:space="preserve"> 440</v>
+      </c>
+      <c r="O143" t="str">
+        <v xml:space="preserve"> 67.75</v>
+      </c>
+      <c r="P143" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q143" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R143" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S143" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T143" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="U143" t="str">
+        <v>2,086.70</v>
+      </c>
+      <c r="V143" t="str">
+        <v>-</v>
+      </c>
+      <c r="W143" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="X143" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>1,320.16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>.27,723</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="B146" t="str">
+        <v>96622</v>
+      </c>
+      <c r="C146" t="str">
+        <v>_x0010_&amp;_x0014_$_x0005_</v>
+      </c>
+      <c r="D146" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E146" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="F146" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G146" t="str">
+        <v>_x0004__x0016__x0017__x000e__x000d_</v>
+      </c>
+      <c r="H146" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I146" t="str">
+        <v xml:space="preserve"> 15 </v>
+      </c>
+      <c r="J146" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K146" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="L146" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="M146" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="N146" t="str">
+        <v xml:space="preserve"> 110</v>
+      </c>
+      <c r="O146" t="str">
+        <v xml:space="preserve"> 67.75</v>
+      </c>
+      <c r="P146" t="str">
+        <v>G</v>
+      </c>
+      <c r="Q146" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R146" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S146" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="T146" t="str">
+        <v xml:space="preserve"> 15*</v>
+      </c>
+      <c r="U146" t="str">
+        <v>-521.68</v>
+      </c>
+      <c r="V146" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="W146" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v xml:space="preserve"> 330.04</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>6,930.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B149" t="str">
+        <v>91683</v>
+      </c>
+      <c r="C149" t="str">
+        <v>_x0013__x0017__x000c_+</v>
+      </c>
+      <c r="D149" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E149" t="str">
+        <v>L5_x000c__x0011_</v>
+      </c>
+      <c r="F149" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G149" t="str">
+        <v>_x000c_5_x000c__x0011_</v>
+      </c>
+      <c r="H149" t="str">
+        <v xml:space="preserve">9 * </v>
+      </c>
+      <c r="I149" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="J149" t="str">
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="K149" t="str">
+        <v>=&amp;_x0015__x0012_</v>
+      </c>
+      <c r="L149" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="M149" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N149" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="O149" t="str">
+        <v xml:space="preserve"> 715</v>
+      </c>
+      <c r="P149" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="Q149" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R149" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S149" t="str">
+        <v>1,876.88</v>
+      </c>
+      <c r="T149" t="str">
+        <v>-</v>
+      </c>
+      <c r="U149" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V149" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>1,187.41</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>.24,935</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v xml:space="preserve"> 62</v>
+      </c>
+      <c r="B152" t="str">
+        <v>91874</v>
+      </c>
+      <c r="C152" t="str">
+        <v>F_x001c__x0014_A</v>
+      </c>
+      <c r="D152" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E152" t="str">
+        <v>L5_x000c__x0011_</v>
+      </c>
+      <c r="F152" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G152" t="str">
+        <v>_x000c_5_x000c__x0011_</v>
+      </c>
+      <c r="H152" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I152" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J152" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="K152" t="str">
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="L152" t="str">
+        <v>_x0003_-_x0015__x0012_</v>
+      </c>
+      <c r="M152" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N152" t="str">
+        <v xml:space="preserve">     9</v>
+      </c>
+      <c r="O152" t="str">
+        <v xml:space="preserve"> 286</v>
+      </c>
+      <c r="P152" t="str">
+        <v xml:space="preserve"> 37.50</v>
+      </c>
+      <c r="Q152" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="R152" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="S152" t="str">
+        <v>-750.75</v>
+      </c>
+      <c r="T152" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="U152" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v xml:space="preserve"> 474.96</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>9,974.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v xml:space="preserve"> 5</v>
+      </c>
+      <c r="B155" t="str">
+        <v>90581</v>
+      </c>
+      <c r="C155" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="D155" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E155" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="F155" t="str">
+        <v>P	_x000d__x000e__x0011_</v>
+      </c>
+      <c r="G155" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H155" t="str">
+        <v>M_x0014_&amp;_x0002_</v>
+      </c>
+      <c r="I155" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="J155" t="str">
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="K155" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="L155" t="str">
+        <v xml:space="preserve">    30</v>
+      </c>
+      <c r="M155" t="str">
+        <v xml:space="preserve"> 220</v>
+      </c>
+      <c r="N155" t="str">
+        <v xml:space="preserve"> 26.50</v>
+      </c>
+      <c r="O155" t="str">
+        <v>G</v>
+      </c>
+      <c r="P155" t="str">
+        <v xml:space="preserve">1 </v>
+      </c>
+      <c r="Q155" t="str">
+        <v>_x0010_H_x000f_</v>
+      </c>
+      <c r="R155" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="S155" t="str">
+        <v xml:space="preserve"> 30</v>
+      </c>
+      <c r="T155" t="str">
+        <v>-408.10</v>
+      </c>
+      <c r="U155" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="V155" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v xml:space="preserve"> 258.19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>5,421.9</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str">
+        <v xml:space="preserve"> 0</v>
+      </c>
+      <c r="B158" t="str" xml:space="preserve">
+        <v xml:space="preserve">=
+_x000e_'A?_x0008_</v>
+      </c>
+      <c r="C158" t="str">
+        <v>50,539.6</v>
+      </c>
+      <c r="D158" t="str">
+        <v>-0</v>
+      </c>
+      <c r="E158" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>33,979.9</v>
+      </c>
+      <c r="B159" t="str">
+        <v xml:space="preserve"> 1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>671,453</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v xml:space="preserve"> .40</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str">
+        <v>205/050/743</v>
+      </c>
+      <c r="B163" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="C163" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
+</v>
+      </c>
+      <c r="D163" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x000c_
+_x000d__x000e__x000f_</v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
+</v>
+      </c>
+      <c r="B164" t="str">
+        <v>4</v>
+      </c>
+      <c r="C164" t="str">
+        <v>/</v>
+      </c>
+      <c r="D164" t="str">
+        <v>4</v>
+      </c>
+      <c r="E164" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="F164" t="str">
+        <v>_x0004__x0005__x0006_</v>
+      </c>
+      <c r="G164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007__x0008__x0004_	
+_x0008_</v>
+      </c>
+      <c r="H164" t="str">
+        <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
+      </c>
+      <c r="I164" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="J164" t="str">
+        <v>421216985</v>
+      </c>
+      <c r="K164" t="str">
+        <v>_x0010__x0011__x0004__x0012_</v>
+      </c>
+      <c r="L164" t="str">
+        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
+      </c>
+      <c r="M164" t="str">
+        <v>_x0018__x0019__x000c__x000f_</v>
+      </c>
+      <c r="N164" t="str">
+        <v>_x0010__x001a__x001b__x001c__x0005_</v>
+      </c>
+      <c r="O164" t="str">
+        <v>_x001d__x0003__x000e__x0014__x0005_</v>
+      </c>
+      <c r="P164" t="str">
+        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
+      </c>
+      <c r="Q164" t="str">
+        <v>-</v>
+      </c>
+      <c r="R164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
+_x0008_</v>
+      </c>
+      <c r="S164" t="str">
+        <v>!</v>
+      </c>
+      <c r="T164" t="str">
+        <v>048\590050-590051</v>
+      </c>
+      <c r="U164" t="str">
+        <v>"_x0011__x000e__x000f_</v>
+      </c>
+      <c r="V164" t="str">
+        <v>048\590052</v>
+      </c>
+      <c r="W164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x001f__x000e_@_x0014_
+_x0008_</v>
+      </c>
+      <c r="X164" t="str">
+        <v>-</v>
+      </c>
+      <c r="Y164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_'&amp;_x001e_'
 _x0008_</v>
       </c>
-      <c r="E65" t="str" xml:space="preserve">
+      <c r="Z164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000e_1I</v>
-      </c>
-      <c r="F65" t="str" xml:space="preserve">
+_x000e_.E</v>
+      </c>
+      <c r="AA164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_,</v>
       </c>
-      <c r="G65" t="str">
+      <c r="AB164" t="str">
         <v>-</v>
       </c>
-      <c r="H65" t="str">
-        <v>_x000b_-_x0015_3</v>
-      </c>
-      <c r="I65" t="str">
-        <v>_x0004__x0015_F</v>
-      </c>
-      <c r="J65" t="str" xml:space="preserve">
+      <c r="AC164" t="str">
+        <v>_x000b_-_x0015_A</v>
+      </c>
+      <c r="AD164" t="str">
+        <v>_x0004__x0015_Q</v>
+      </c>
+      <c r="AE164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_E_x001e__x0005_</v>
-      </c>
-      <c r="K65" t="str">
+_x000c_H_x001e__x0005_</v>
+      </c>
+      <c r="AF164" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="L65" t="str">
+      <c r="AG164" t="str">
         <v>_x0007__x000c_+</v>
       </c>
-      <c r="M65" t="str">
+      <c r="AH164" t="str">
         <v>.</v>
       </c>
-      <c r="N65" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0017_K&gt;$
-_x0008_</v>
-      </c>
-      <c r="O65" t="str" xml:space="preserve">
+      <c r="AI164" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0017_L&lt;$
+_x0008_</v>
+      </c>
+      <c r="AJ164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_</v>
       </c>
-      <c r="P65" t="str">
+      <c r="AK164" t="str">
         <v>-</v>
       </c>
-      <c r="Q65" t="str">
-        <v>_x0004__x0015_F</v>
-      </c>
-      <c r="R65" t="str" xml:space="preserve">
+      <c r="AL164" t="str">
+        <v>_x0004__x0015_Q</v>
+      </c>
+      <c r="AM164" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000c_E_x001e__x0005_</v>
-      </c>
-      <c r="S65" t="str">
+_x000c_H_x001e__x0005_</v>
+      </c>
+      <c r="AN164" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="T65" t="str">
+      <c r="AO164" t="str">
         <v>C_x0004__x001f_</v>
       </c>
-      <c r="U65" t="str">
-        <v>_x000e_=_x000d__x000e__x0016_$_x001c__x0005_</v>
-      </c>
-      <c r="V65" t="str">
-        <v>-0I</v>
-      </c>
-      <c r="W65" t="str">
-        <v>_x0007__x000e_=$P_x0008_</v>
-      </c>
-      <c r="X65" t="str">
+      <c r="AP164" t="str">
+        <v>_x000e_;_x000d__x000e__x0016_$_x001c__x0005_</v>
+      </c>
+      <c r="AQ164" t="str">
+        <v>-/E</v>
+      </c>
+      <c r="AR164" t="str">
+        <v>_x0007__x000e_;$5_x0008_</v>
+      </c>
+      <c r="AS164" t="str">
         <v>#_x0017__x0003__x000e__x000d_</v>
       </c>
-      <c r="Y65" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_.Q 
-_x0008_</v>
-      </c>
-      <c r="Z65" t="str" xml:space="preserve">
-        <v xml:space="preserve">7,-'
-_x0008_</v>
-      </c>
-      <c r="AA65" t="str">
-        <v>_x000e_=_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AB65" t="str">
+      <c r="AT164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_8N 
+_x0008_</v>
+      </c>
+      <c r="AU164" t="str" xml:space="preserve">
+        <v xml:space="preserve">4,-'
+_x0008_</v>
+      </c>
+      <c r="AV164" t="str">
+        <v>_x000e_;_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AW164" t="str">
         <v>_x000e__x0005_,</v>
       </c>
-      <c r="AC65" t="str">
-        <v>R_x000d__x0004_$_x0017_</v>
-      </c>
-      <c r="AD65" t="str">
-        <v>G_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AE65" t="str">
+      <c r="AX164" t="str">
+        <v>P_x000d__x0004_$_x0017_</v>
+      </c>
+      <c r="AY164" t="str">
+        <v>F_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AZ164" t="str">
         <v>(_x0005_</v>
       </c>
-      <c r="AF65" t="str">
+      <c r="BA164" t="str">
         <v>.</v>
       </c>
-      <c r="AG65" t="str">
-        <v>_x0003__x000e_S_x0008_</v>
-      </c>
-      <c r="AH65" t="str">
-        <v>_x000e__x0012__x0004__x0002_</v>
-      </c>
-      <c r="AI65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ65" t="str">
-        <v>7_x000c_0I_x0003__x0008_</v>
-      </c>
-      <c r="AK65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AL65" t="str">
-        <v>T_x0004_ _x0005_</v>
-      </c>
-      <c r="AM65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AN65" t="str">
-        <v>G_x0015__x001c_3</v>
-      </c>
-      <c r="AO65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AP65" t="str">
-        <v>7_x000c_0_x001e__x000d_,</v>
-      </c>
-      <c r="AQ65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AR65" t="str">
-        <v>-._x0008_,,</v>
-      </c>
-      <c r="AS65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT65" t="str">
-        <v>G6_x000e_'0_x0014_+,</v>
-      </c>
-      <c r="AU65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AV65" t="str" xml:space="preserve">
-        <v xml:space="preserve">;
-_x0008_</v>
-      </c>
-      <c r="AW65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AX65" t="str">
-        <v>_x0004_	_x001f__x0010_0_x0014_+,</v>
-      </c>
-      <c r="AY65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ65" t="str">
-        <v>_x0010_6_x000e__x0005_</v>
-      </c>
-      <c r="BA65" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB65" t="str">
-        <v>U_x001a__x000f_</v>
-      </c>
-      <c r="BC65" t="str">
+      <c r="BB164" t="str">
+        <v>_x0003__x000e_R_x0008_</v>
+      </c>
+      <c r="BC164" t="str">
+        <v>S_x0004_ _x0005_</v>
+      </c>
+      <c r="BD164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE164" t="str">
+        <v>F_x0015__x001c_A</v>
+      </c>
+      <c r="BF164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG164" t="str">
+        <v>4_x000c__x001e_'I,</v>
+      </c>
+      <c r="BH164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI164" t="str">
+        <v>_x0010_RNR,</v>
+      </c>
+      <c r="BJ164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK164" t="str">
+        <v>F3_x000e_'/E_x0003__x0006_,</v>
+      </c>
+      <c r="BL164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM164" t="str" xml:space="preserve">
+        <v xml:space="preserve">7
+_x0008_</v>
+      </c>
+      <c r="BN164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO164" t="str">
+        <v>4_x000c_/_x0014_+,</v>
+      </c>
+      <c r="BP164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ164" t="str">
+        <v>-8_x0008_,,</v>
+      </c>
+      <c r="BR164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS164" t="str">
+        <v>F3_x000e_'$+</v>
+      </c>
+      <c r="BT164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU164" t="str">
+        <v>T_x001a__x000f_</v>
+      </c>
+      <c r="BV164" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="BD65" t="str">
+      <c r="BW164" t="str">
         <v>FWI-SL-01\02:</v>
       </c>
-      <c r="BE65" t="str">
-        <v>,K_x0017_4_x0008_</v>
-      </c>
-      <c r="BF65" t="str" xml:space="preserve">
-        <v xml:space="preserve">U&gt;
-_x0008_</v>
-      </c>
-      <c r="BG65" t="str">
+      <c r="BX164" t="str">
+        <v>,L_x0017_?_x0008_</v>
+      </c>
+      <c r="BY164" t="str" xml:space="preserve">
+        <v xml:space="preserve">T&lt;
+_x0008_</v>
+      </c>
+      <c r="BZ164" t="str">
         <v>19624:</v>
       </c>
-      <c r="BH65" t="str" xml:space="preserve">
-        <v xml:space="preserve">(N_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="BI65" t="str">
-        <v>_x0010__x0005_-N</v>
-      </c>
-      <c r="BJ65" t="str">
+      <c r="CA164" t="str" xml:space="preserve">
+        <v xml:space="preserve">(I_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="CB164" t="str">
+        <v>_x0010__x0005_-I</v>
+      </c>
+      <c r="CC164" t="str">
         <v>:</v>
       </c>
-      <c r="BK65" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007_Q'0
-_x0008_</v>
-      </c>
-      <c r="BL65" t="str">
+      <c r="CD164" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007_N'/
+_x0008_</v>
+      </c>
+      <c r="CE164" t="str">
         <v>01224475178</v>
       </c>
     </row>
-    <row r="66" xml:space="preserve">
-      <c r="A66" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0004_8_x000e__x001a_
-_x0008_</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
+    <row r="165" xml:space="preserve">
+      <c r="A165" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004_U_x000e__x001a_
+_x0008_</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="68" xml:space="preserve">
-      <c r="A68" t="str">
+    <row r="167" xml:space="preserve">
+      <c r="A167" t="str">
         <v>_x0003__x000e_'V$+W</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B167" t="str">
         <v xml:space="preserve">3303  </v>
       </c>
-      <c r="C68" t="str">
+      <c r="C167" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="D68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E68" t="str">
-        <v>T_x0003__x000e__x0016__x000d_</v>
-      </c>
-      <c r="F68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G68" t="str">
-        <v>2_x0016_+</v>
-      </c>
-      <c r="H68" t="str">
+      <c r="D167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E167" t="str">
+        <v>S_x0003__x000e__x0016__x000d_</v>
+      </c>
+      <c r="F167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G167" t="str">
+        <v>0_x0016_+</v>
+      </c>
+      <c r="H167" t="str">
         <v xml:space="preserve"> 026/214  </v>
       </c>
-      <c r="I68" t="str">
+      <c r="I167" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="J68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K68" t="str">
-        <v>;&amp;_x0005_</v>
-      </c>
-      <c r="L68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M68" t="str" xml:space="preserve">
+      <c r="J167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K167" t="str">
+        <v>7&amp;_x0005_</v>
+      </c>
+      <c r="L167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M167" t="str" xml:space="preserve">
         <v xml:space="preserve">(_x0015_
 _x000c_''
 _x0008_</v>
       </c>
-      <c r="N68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O68" t="str" xml:space="preserve">
+      <c r="N167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O167" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0003__x000e__x0014_9
 </v>
       </c>
-      <c r="P68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q68" t="str" xml:space="preserve">
-        <v xml:space="preserve">?_x0014__x0017__x0004_A
-_x0008_</v>
-      </c>
-      <c r="R68" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S68" t="str" xml:space="preserve">
-        <v xml:space="preserve">K_x0011__x0004_'
-_x0008_</v>
-      </c>
-      <c r="T68" t="str">
+      <c r="P167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q167" t="str" xml:space="preserve">
+        <v xml:space="preserve">=_x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+      <c r="R167" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S167" t="str" xml:space="preserve">
+        <v xml:space="preserve">L_x0011__x0004_'
+_x0008_</v>
+      </c>
+      <c r="T167" t="str">
         <v>X_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="U68" t="str">
+      <c r="U167" t="str">
         <v>:</v>
       </c>
-      <c r="V68" t="str" xml:space="preserve">
+      <c r="V167" t="str" xml:space="preserve">
         <v xml:space="preserve">%,-_x001c_'
 _x0008_</v>
       </c>
-      <c r="W68" t="str">
+      <c r="W167" t="str">
         <v>--------------</v>
       </c>
-      <c r="X68" t="str">
+      <c r="X167" t="str">
         <v>X_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="Y68" t="str" xml:space="preserve">
-        <v xml:space="preserve">2_x0015_'0
-_x0008_</v>
-      </c>
-      <c r="Z68" t="str">
+      <c r="Y167" t="str" xml:space="preserve">
+        <v xml:space="preserve">0_x0015_'/
+_x0008_</v>
+      </c>
+      <c r="Z167" t="str">
         <v>:</v>
       </c>
-      <c r="AA68" t="str">
-        <v>BQ$+4_x000e_I</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
+      <c r="AA167" t="str">
+        <v>BN$+?_x000e_E</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
         <v>------------------</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CX69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CN168"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/controllers/excelfrompdf.xlsx
+++ b/server/controllers/excelfrompdf.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CN39"/>
+  <dimension ref="A1:CR42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>_x0001__x0002__x0003_</v>
       </c>
       <c r="J2" t="str">
-        <v>421217621</v>
+        <v>421211628</v>
       </c>
       <c r="K2" t="str">
         <v>_x0010__x0011__x0004__x0012_</v>
@@ -474,7 +474,7 @@
 _x0008_</v>
       </c>
       <c r="Y2" t="str">
-        <v>06.02.2023</v>
+        <v>01.01.2023</v>
       </c>
       <c r="Z2" t="str" xml:space="preserve">
         <v xml:space="preserve">%_x000c_&amp;_x001b_'
@@ -491,7 +491,7 @@
 _x0008_</v>
       </c>
       <c r="AD2" t="str">
-        <v>8000249</v>
+        <v>8000130</v>
       </c>
       <c r="AE2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0015__x000d__x0005__x0016__x0013_	
@@ -501,13 +501,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AG2" t="str">
-        <v>_x0017__x0013__x0018__x0019_</v>
+        <v>_x0017__x0018__x000d__x0019_</v>
       </c>
       <c r="AH2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="AI2" t="str">
-        <v>_x0017__x0016__x001a_</v>
+        <v>_x001a__x001b__x001c_</v>
       </c>
       <c r="AJ2" t="str">
         <v xml:space="preserve"> </v>
@@ -593,19 +593,19 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="BI2" t="str">
-        <v>1_x0014_&amp;_x0012_</v>
+        <v>%,_x0004_1</v>
       </c>
       <c r="BJ2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="BK2" t="str">
-        <v>1._x0017_</v>
+        <v>_x0013__x0017_2</v>
       </c>
       <c r="BL2" t="str">
         <v xml:space="preserve">: </v>
       </c>
       <c r="BM2" t="str" xml:space="preserve">
-        <v xml:space="preserve">23_x000e__x001e_
+        <v xml:space="preserve">34_x000e__x001e_
 _x0008_</v>
       </c>
       <c r="BN2" t="str">
@@ -624,80 +624,94 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="BS2" t="str">
-        <v>43352</v>
+        <v>4963</v>
       </c>
       <c r="BT2" t="str">
         <v>:</v>
       </c>
       <c r="BU2" t="str" xml:space="preserve">
-        <v xml:space="preserve">4_x0008__x000c__x001c_/
-_x0008_</v>
-      </c>
-      <c r="BV2" t="str">
-        <v>"5_x000c_+_x0019_</v>
+        <v xml:space="preserve">5_x0008__x000c__x001c_/
+_x0008_</v>
+      </c>
+      <c r="BV2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004_6_x000e__x001a_
+_x0008_</v>
       </c>
       <c r="BW2" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="BX2" t="str">
-        <v>6</v>
+        <v>_x0010__x0017__x0003_-_x001c_7+_x0008_</v>
       </c>
       <c r="BY2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ2" t="str">
+        <v>3_x0017__x0004_8</v>
+      </c>
+      <c r="CA2" t="str">
+        <v xml:space="preserve"> 60 </v>
+      </c>
+      <c r="CB2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000c_&amp;_x0015_7
+_x0008_</v>
+      </c>
+      <c r="CC2" t="str">
         <v>_x0019__x000c__x0011_</v>
       </c>
-      <c r="BZ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">7_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CA2" t="str">
+      <c r="CD2" t="str" xml:space="preserve">
+        <v xml:space="preserve">9_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="CE2" t="str">
         <v>_x0001_+_x0008_</v>
       </c>
-      <c r="CB2" t="str">
+      <c r="CF2" t="str">
         <v xml:space="preserve">    </v>
       </c>
-      <c r="CC2" t="str" xml:space="preserve">
-        <v xml:space="preserve">7_x001c_ 
-_x0008_</v>
-      </c>
-      <c r="CD2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b_-8_x000c_
-_x0008_</v>
-      </c>
-      <c r="CE2" t="str" xml:space="preserve">
+      <c r="CG2" t="str" xml:space="preserve">
+        <v xml:space="preserve">9_x001c_ 
+_x0008_</v>
+      </c>
+      <c r="CH2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b_-:_x000c_
+_x0008_</v>
+      </c>
+      <c r="CI2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000b__x000c__x0014_/
 _x0008_</v>
       </c>
-      <c r="CF2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_'9
-_x0008_</v>
-      </c>
-      <c r="CG2" t="str" xml:space="preserve">
+      <c r="CJ2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_'7
+_x0008_</v>
+      </c>
+      <c r="CK2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0004_/_x001e_
 _x0008_</v>
       </c>
-      <c r="CH2" t="str">
+      <c r="CL2" t="str">
         <v>_x0004_/+</v>
       </c>
-      <c r="CI2" t="str" xml:space="preserve">
-        <v xml:space="preserve">:&amp;;$_x001e_'
-_x0008_</v>
-      </c>
-      <c r="CJ2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &lt;
-_x0008_</v>
-      </c>
-      <c r="CK2" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0001_ &lt;
-_x0008_</v>
-      </c>
-      <c r="CL2" t="str">
-        <v>=_x000f__x000e_&gt;?_x0008_</v>
-      </c>
       <c r="CM2" t="str" xml:space="preserve">
+        <v xml:space="preserve">;&amp;&lt;$_x001e_'
+_x0008_</v>
+      </c>
+      <c r="CN2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ =
+_x0008_</v>
+      </c>
+      <c r="CO2" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0001_ =
+_x0008_</v>
+      </c>
+      <c r="CP2" t="str">
+        <v>&gt;_x000f__x000e_?2_x0008_</v>
+      </c>
+      <c r="CQ2" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0014__x0017__x0004_@
 _x0008_</v>
       </c>
-      <c r="CN2" t="str">
+      <c r="CR2" t="str">
         <v>%</v>
       </c>
     </row>
@@ -709,8 +723,8 @@
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">=
-_x000e_'A_x0008_</v>
+        <v xml:space="preserve">&gt;
+_x000e_'1_x0008_</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +734,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="7">
@@ -730,43 +744,43 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="B8" t="str">
-        <v>96510</v>
+        <v>92135</v>
       </c>
       <c r="C8" t="str">
-        <v>_x0013__x0017__x000c_+</v>
+        <v>5_x0003__x000c__x0011_</v>
       </c>
       <c r="D8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
-        <v>"9$+</v>
+        <v>%_x000c_C</v>
       </c>
       <c r="F8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="H8" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="I8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J8" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="K8" t="str">
+        <v>_x000c__x0015_7_x0015_C_x0003__x000e_C</v>
+      </c>
+      <c r="L8" t="str">
         <v>"_x0015__x0011_</v>
       </c>
-      <c r="I8" t="str">
-        <v xml:space="preserve">9 </v>
-      </c>
-      <c r="J8" t="str">
-        <v>D_x0015__x001c_A</v>
-      </c>
-      <c r="K8" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L8" t="str">
-        <v xml:space="preserve">5 </v>
-      </c>
       <c r="M8" t="str">
-        <v>1&amp;_x0015__x0012_</v>
+        <v>9</v>
       </c>
       <c r="N8" t="str">
         <v>CAR</v>
@@ -775,7 +789,7 @@
         <v xml:space="preserve">     9</v>
       </c>
       <c r="P8" t="str">
-        <v xml:space="preserve"> 600</v>
+        <v xml:space="preserve"> 220</v>
       </c>
       <c r="Q8" t="str">
         <v xml:space="preserve"> 37.50</v>
@@ -787,315 +801,299 @@
         <v>_x0010_E_x000f_</v>
       </c>
       <c r="T8" t="str">
-        <v>1,575.00</v>
+        <v>-577.50</v>
       </c>
       <c r="U8" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="V8" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="W8" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v xml:space="preserve"> 996.43</v>
+        <v xml:space="preserve"> 942.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>.20,925</v>
+        <v>7,672.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v xml:space="preserve"> 00</v>
+        <v xml:space="preserve"> 0</v>
       </c>
       <c r="B11" t="str">
-        <v>92111</v>
+        <v>92113</v>
       </c>
       <c r="C11" t="str">
-        <v>4_x0003__x000c__x0011_</v>
+        <v>5_x0003__x000c__x0011_</v>
       </c>
       <c r="D11" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v>F_x000e_G</v>
+        <v>F_x000e_C</v>
       </c>
       <c r="F11" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="H11" t="str">
+        <v xml:space="preserve">5 </v>
+      </c>
+      <c r="I11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J11" t="str">
+        <v>G'_x0017__x0004__x0011_</v>
+      </c>
+      <c r="K11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" t="str">
+        <v>D_x001c__x0014_1</v>
+      </c>
+      <c r="M11" t="str">
         <v>"_x0015__x0011_</v>
       </c>
-      <c r="I11" t="str">
-        <v xml:space="preserve">9 </v>
-      </c>
-      <c r="J11" t="str">
-        <v>D_x0015__x001c_A</v>
-      </c>
-      <c r="K11" t="str">
-        <v xml:space="preserve"> 5 </v>
-      </c>
-      <c r="L11" t="str">
-        <v>H	_x000d__x000e__x0011_</v>
-      </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
+        <v>9</v>
+      </c>
+      <c r="O11" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="P11" t="str">
         <v>CAR</v>
       </c>
-      <c r="N11" t="str">
+      <c r="Q11" t="str">
         <v xml:space="preserve">     9</v>
       </c>
-      <c r="O11" t="str">
-        <v xml:space="preserve"> 600</v>
-      </c>
-      <c r="P11" t="str">
+      <c r="R11" t="str">
+        <v xml:space="preserve"> 680</v>
+      </c>
+      <c r="S11" t="str">
         <v xml:space="preserve"> 37.50</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="T11" t="str">
         <v xml:space="preserve">5 </v>
       </c>
-      <c r="R11" t="str">
+      <c r="U11" t="str">
         <v>_x0010_E_x000f_</v>
       </c>
-      <c r="S11" t="str">
-        <v>1,575.00</v>
-      </c>
-      <c r="T11" t="str">
+      <c r="V11" t="str">
+        <v>1,785.00</v>
+      </c>
+      <c r="W11" t="str">
         <v>-</v>
       </c>
-      <c r="U11" t="str">
+      <c r="X11" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
-      <c r="V11" t="str">
+      <c r="Y11" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve"> 996.43</v>
+        <v>1,129.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>.20,925</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
+        <v>.23,715</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="str">
         <v xml:space="preserve"> 00</v>
       </c>
       <c r="B14" t="str">
-        <v>92138</v>
+        <v>92110</v>
       </c>
       <c r="C14" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v>D_x001c__x0014_1</v>
       </c>
       <c r="D14" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v>_x000c_&amp;8</v>
+        <v>"_x000f__x000e_C</v>
       </c>
       <c r="F14" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="G14" t="str" xml:space="preserve">
-        <v xml:space="preserve">4_x000c_'_x0015_
-</v>
+      <c r="G14" t="str">
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="H14" t="str">
-        <v xml:space="preserve"> </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I14" t="str">
-        <v>I_x0015__x000d__x0003__x000c__x000d_</v>
+        <v xml:space="preserve">9 </v>
       </c>
       <c r="J14" t="str">
-        <v>"_x0015__x0011_</v>
+        <v>D_x0015__x001c_1</v>
       </c>
       <c r="K14" t="str">
-        <v>15</v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="L14" t="str">
-        <v>D_x0015__x001c_A</v>
+        <v>CAR</v>
       </c>
       <c r="M14" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve">     9</v>
       </c>
       <c r="N14" t="str">
-        <v>3</v>
+        <v xml:space="preserve"> 85</v>
       </c>
       <c r="O14" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve"> 37.50</v>
       </c>
       <c r="P14" t="str">
-        <v xml:space="preserve">    15</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="Q14" t="str">
-        <v xml:space="preserve"> 112</v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="R14" t="str">
-        <v xml:space="preserve"> 37.50</v>
+        <v>-223.13</v>
       </c>
       <c r="S14" t="str">
-        <v>J</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="T14" t="str">
-        <v xml:space="preserve">3 </v>
-      </c>
-      <c r="U14" t="str">
-        <v>_x0010_E_x000f_</v>
-      </c>
-      <c r="V14" t="str">
-        <v>"_x0015__x0011_</v>
-      </c>
-      <c r="W14" t="str">
-        <v xml:space="preserve"> 15</v>
-      </c>
-      <c r="X14" t="str">
-        <v>-294.00</v>
-      </c>
-      <c r="Y14" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="Z14" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v xml:space="preserve"> 186.00</v>
+        <v xml:space="preserve"> 141.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>3,906.0</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
+        <v>2,964.3</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve"> 0</v>
+        <v xml:space="preserve"> 7</v>
       </c>
       <c r="B17" t="str">
-        <v>92120</v>
+        <v>92111</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>5_x0003__x000c__x0011_</v>
       </c>
       <c r="D17" t="str">
-        <v>I_x0015__x000d__x0003__x000c__x000d_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>F_x000e_C</v>
       </c>
       <c r="F17" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <v>D_x0015__x001c_A</v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="H17" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="I17" t="str">
+        <v xml:space="preserve">9 </v>
+      </c>
+      <c r="J17" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="K17" t="str">
         <v xml:space="preserve"> 5 </v>
       </c>
-      <c r="I17" t="str">
-        <v>_x000c_&amp;8</v>
-      </c>
-      <c r="J17" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K17" t="str" xml:space="preserve">
-        <v xml:space="preserve">4_x000c_'_x0015_
-</v>
-      </c>
       <c r="L17" t="str">
-        <v>"_x0015__x0011_</v>
+        <v>H	_x000d__x000e__x0011_</v>
       </c>
       <c r="M17" t="str">
-        <v>9</v>
+        <v>CAR</v>
       </c>
       <c r="N17" t="str">
-        <v>CAR</v>
+        <v xml:space="preserve">     9</v>
       </c>
       <c r="O17" t="str">
-        <v xml:space="preserve">     9</v>
+        <v xml:space="preserve"> 170</v>
       </c>
       <c r="P17" t="str">
-        <v xml:space="preserve"> 198</v>
+        <v xml:space="preserve"> 37.50</v>
       </c>
       <c r="Q17" t="str">
-        <v xml:space="preserve"> 37.50</v>
+        <v xml:space="preserve">5 </v>
       </c>
       <c r="R17" t="str">
-        <v xml:space="preserve">5 </v>
+        <v>_x0010_E_x000f_</v>
       </c>
       <c r="S17" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v>-446.25</v>
       </c>
       <c r="T17" t="str">
-        <v>-519.75</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="U17" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="V17" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve"> 328.82</v>
+        <v xml:space="preserve"> 282.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>6,905.2</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>5,928.7</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
       <c r="A20" t="str">
         <v xml:space="preserve"> 5</v>
       </c>
       <c r="B20" t="str">
-        <v>92134</v>
+        <v>92120</v>
       </c>
       <c r="C20" t="str">
-        <v>4_x0003__x000c__x0011_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>I_x0015__x000d__x0003__x000c__x000d_</v>
       </c>
       <c r="E20" t="str">
-        <v>%_x000c_G</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve"> </v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="G20" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v>D_x0015__x001c_1</v>
       </c>
       <c r="H20" t="str">
+        <v xml:space="preserve"> 5 </v>
+      </c>
+      <c r="I20" t="str">
+        <v>_x000c_&amp;:</v>
+      </c>
+      <c r="J20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" t="str" xml:space="preserve">
+        <v xml:space="preserve">5_x000c_'_x0015_
+</v>
+      </c>
+      <c r="L20" t="str">
         <v>"_x0015__x0011_</v>
       </c>
-      <c r="I20" t="str">
-        <v xml:space="preserve">9 </v>
-      </c>
-      <c r="J20" t="str">
-        <v>D_x0015__x001c_A</v>
-      </c>
-      <c r="K20" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L20" t="str">
-        <v xml:space="preserve">5 </v>
-      </c>
       <c r="M20" t="str">
-        <v>D_x001c__x0014_A</v>
+        <v>9</v>
       </c>
       <c r="N20" t="str">
         <v>CAR</v>
@@ -1104,7 +1102,7 @@
         <v xml:space="preserve">     9</v>
       </c>
       <c r="P20" t="str">
-        <v xml:space="preserve"> 286</v>
+        <v xml:space="preserve"> 162</v>
       </c>
       <c r="Q20" t="str">
         <v xml:space="preserve"> 37.50</v>
@@ -1116,83 +1114,82 @@
         <v>_x0010_E_x000f_</v>
       </c>
       <c r="T20" t="str">
-        <v>-750.75</v>
+        <v>-425.25</v>
       </c>
       <c r="U20" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="V20" t="str">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1,224.91</v>
+        <v xml:space="preserve"> 269.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>9,974.2</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+        <v>5,649.7</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
         <v xml:space="preserve"> 5</v>
       </c>
       <c r="B23" t="str">
-        <v>96525</v>
+        <v>92137</v>
       </c>
       <c r="C23" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v>5_x0003__x000c__x0011_</v>
       </c>
       <c r="D23" t="str">
-        <v>_x000c_&amp;8</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F23" t="str" xml:space="preserve">
-        <v xml:space="preserve">4_x000c_'_x0015_
-</v>
+        <v>%_x000c_C</v>
+      </c>
+      <c r="F23" t="str">
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="H23" t="str">
-        <v>I_x0015__x000d__x0003__x000c__x000d_</v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="I23" t="str">
-        <v xml:space="preserve"> </v>
+        <v>15</v>
       </c>
       <c r="J23" t="str">
-        <v>"_x0015__x0011_</v>
+        <v>D_x0015__x001c_1</v>
       </c>
       <c r="K23" t="str">
-        <v xml:space="preserve"> 18</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L23" t="str">
-        <v>D_x0015__x001c_A</v>
+        <v xml:space="preserve">3 </v>
       </c>
       <c r="M23" t="str">
-        <v>2</v>
+        <v>D_x001c__x0014_1</v>
       </c>
       <c r="N23" t="str">
         <v>CAR</v>
       </c>
       <c r="O23" t="str">
-        <v xml:space="preserve">    18</v>
+        <v xml:space="preserve">    15</v>
       </c>
       <c r="P23" t="str">
-        <v xml:space="preserve"> 288</v>
+        <v xml:space="preserve"> 206</v>
       </c>
       <c r="Q23" t="str">
-        <v xml:space="preserve"> 31.00</v>
+        <v xml:space="preserve"> 37.50</v>
       </c>
       <c r="R23" t="str">
         <v>J</v>
       </c>
       <c r="S23" t="str">
-        <v xml:space="preserve">2 </v>
+        <v xml:space="preserve">3 </v>
       </c>
       <c r="T23" t="str">
         <v>_x0010_E_x000f_</v>
@@ -1201,553 +1198,647 @@
         <v>"_x0015__x0011_</v>
       </c>
       <c r="V23" t="str">
-        <v xml:space="preserve"> 18*</v>
+        <v xml:space="preserve"> 15</v>
       </c>
       <c r="W23" t="str">
-        <v>-624.96</v>
+        <v>-540.75</v>
       </c>
       <c r="X23" t="str">
         <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="Y23" t="str">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v xml:space="preserve"> 395.38</v>
+        <v xml:space="preserve"> 882.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>8,303.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>7,184.2</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v xml:space="preserve"> 4</v>
+        <v xml:space="preserve"> 5</v>
       </c>
       <c r="B26" t="str">
-        <v>96521</v>
+        <v>92114</v>
       </c>
       <c r="C26" t="str">
-        <v>_x0003__x000e_@K</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D26" t="str">
-        <v xml:space="preserve"> </v>
+        <v>I_x0015__x000d__x0003__x000c__x000d_</v>
       </c>
       <c r="E26" t="str">
-        <v>"G_x000c__x0015__x000d_</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F26" t="str">
-        <v xml:space="preserve"> </v>
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
       </c>
       <c r="G26" t="str">
-        <v>_x0003__x0008__x000c_A_x000e_A</v>
+        <v xml:space="preserve">2 </v>
       </c>
       <c r="H26" t="str">
-        <v xml:space="preserve">18 </v>
+        <v>_x000c_&amp;:</v>
       </c>
       <c r="I26" t="str">
-        <v>D_x0015__x001c_A</v>
-      </c>
-      <c r="J26" t="str">
-        <v xml:space="preserve"> </v>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
+        <v xml:space="preserve">5_x000c_'_x0015_
+</v>
       </c>
       <c r="K26" t="str">
-        <v xml:space="preserve"> </v>
+        <v>"_x0015__x0011_</v>
       </c>
       <c r="L26" t="str">
+        <v>15</v>
+      </c>
+      <c r="M26" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="N26" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="O26" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="P26" t="str">
+        <v xml:space="preserve"> 135</v>
+      </c>
+      <c r="Q26" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="R26" t="str">
+        <v>J</v>
+      </c>
+      <c r="S26" t="str">
         <v xml:space="preserve">2 </v>
       </c>
-      <c r="M26" t="str">
-        <v>_x0003__x000e_8</v>
-      </c>
-      <c r="N26" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O26" t="str">
+      <c r="T26" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="U26" t="str">
         <v>"_x0015__x0011_</v>
       </c>
-      <c r="P26" t="str">
-        <v>CAR</v>
-      </c>
-      <c r="Q26" t="str">
-        <v xml:space="preserve">    18</v>
-      </c>
-      <c r="R26" t="str">
-        <v xml:space="preserve"> 240</v>
-      </c>
-      <c r="S26" t="str">
-        <v xml:space="preserve"> 31.00</v>
-      </c>
-      <c r="T26" t="str">
-        <v>J</v>
-      </c>
-      <c r="U26" t="str">
-        <v xml:space="preserve">2 </v>
-      </c>
       <c r="V26" t="str">
-        <v>_x0010_E_x000f_</v>
+        <v xml:space="preserve"> 15</v>
       </c>
       <c r="W26" t="str">
-        <v>"_x0015__x0011_</v>
+        <v>-240.98</v>
       </c>
       <c r="X26" t="str">
-        <v xml:space="preserve"> 18*</v>
+        <v xml:space="preserve"> 0.00</v>
       </c>
       <c r="Y26" t="str">
-        <v>-520.80</v>
-      </c>
-      <c r="Z26" t="str">
-        <v xml:space="preserve"> 0.00</v>
-      </c>
-      <c r="AA26" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v xml:space="preserve"> 329.49</v>
+        <v xml:space="preserve"> 152.45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>6,919.2</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
+        <v>3,201.5</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve"> 0</v>
-      </c>
-      <c r="B29" t="str" xml:space="preserve">
-        <v xml:space="preserve">=
-_x000e_'A?_x0008_</v>
+        <v xml:space="preserve"> 2</v>
+      </c>
+      <c r="B29" t="str">
+        <v>92130</v>
       </c>
       <c r="C29" t="str">
-        <v>5,860.26</v>
+        <v>!_x000c_6</v>
       </c>
       <c r="D29" t="str">
-        <v>-</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E29" t="str">
+        <v>"C_x000c__x0015__x000d_</v>
+      </c>
+      <c r="F29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G29" t="str">
+        <v>_x0003__x0008__x000c_1_x000e_1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>,</v>
+      </c>
+      <c r="I29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J29" t="str">
+        <v>J,_x0019_</v>
+      </c>
+      <c r="K29" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="L29" t="str">
+        <v>15</v>
+      </c>
+      <c r="M29" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="N29" t="str">
+        <v>2</v>
+      </c>
+      <c r="O29" t="str">
+        <v>H	_x000d__x000e__x0011_</v>
+      </c>
+      <c r="P29" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="Q29" t="str">
+        <v xml:space="preserve">    15</v>
+      </c>
+      <c r="R29" t="str">
+        <v xml:space="preserve"> 416</v>
+      </c>
+      <c r="S29" t="str">
+        <v xml:space="preserve"> 25.50</v>
+      </c>
+      <c r="T29" t="str">
+        <v>J</v>
+      </c>
+      <c r="U29" t="str">
+        <v xml:space="preserve">2 </v>
+      </c>
+      <c r="V29" t="str">
+        <v>_x0010_E_x000f_</v>
+      </c>
+      <c r="W29" t="str">
+        <v>"_x0015__x0011_</v>
+      </c>
+      <c r="X29" t="str">
+        <v xml:space="preserve"> 15</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>-742.56</v>
+      </c>
+      <c r="Z29" t="str">
         <v xml:space="preserve"> 0.00</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>4,457.46</v>
+        <v xml:space="preserve"> 469.78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>.77,857</v>
+        <v>9,865.4</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v xml:space="preserve"> 74</v>
+        <v xml:space="preserve"> 4</v>
       </c>
       <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">&gt;
+_x000e_'12_x0008_</v>
+      </c>
+      <c r="C32" t="str">
+        <v>4,981.42</v>
+      </c>
+      <c r="D32" t="str">
+        <v>-</v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve"> 0.00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4,268.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>.66,181</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v xml:space="preserve"> 58</v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x001f__x000e_@_x0014_
 _x0008_</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C35" t="str">
         <v>-</v>
       </c>
-      <c r="D32" t="str" xml:space="preserve">
+      <c r="D35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_'&amp;_x001e_'
 _x0008_</v>
       </c>
-      <c r="E32" t="str" xml:space="preserve">
+      <c r="E35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
-_x000e_.G</v>
-      </c>
-      <c r="F32" t="str" xml:space="preserve">
+_x000e_.C</v>
+      </c>
+      <c r="F35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_,</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G35" t="str">
         <v>-</v>
       </c>
-      <c r="H32" t="str">
-        <v>_x000b_-_x0015_A</v>
-      </c>
-      <c r="I32" t="str">
-        <v>_x0004__x0015_L</v>
-      </c>
-      <c r="J32" t="str" xml:space="preserve">
+      <c r="H35" t="str">
+        <v>_x000b_-_x0015_1</v>
+      </c>
+      <c r="I35" t="str">
+        <v>_x0004__x0015_K</v>
+      </c>
+      <c r="J35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
 _x000c_E_x001e__x0005_</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K35" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L35" t="str">
         <v>_x0007__x000c_+</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M35" t="str">
         <v>.</v>
       </c>
-      <c r="N32" t="str" xml:space="preserve">
-        <v xml:space="preserve">(_x0017_M&lt;$
-_x0008_</v>
-      </c>
-      <c r="O32" t="str" xml:space="preserve">
+      <c r="N35" t="str" xml:space="preserve">
+        <v xml:space="preserve">(_x0017_L=$
+_x0008_</v>
+      </c>
+      <c r="O35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0004_	
 _x0008_</v>
       </c>
-      <c r="P32" t="str">
+      <c r="P35" t="str">
         <v>-</v>
       </c>
-      <c r="Q32" t="str">
-        <v>_x0004__x0015_L</v>
-      </c>
-      <c r="R32" t="str" xml:space="preserve">
+      <c r="Q35" t="str">
+        <v>_x0004__x0015_K</v>
+      </c>
+      <c r="R35" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010_
 _x000c_E_x001e__x0005_</v>
       </c>
-      <c r="S32" t="str">
+      <c r="S35" t="str">
         <v>(_x001f_</v>
       </c>
-      <c r="T32" t="str">
-        <v>C_x0004__x001f_</v>
-      </c>
-      <c r="U32" t="str">
-        <v>_x000e_;_x000d__x000e__x0016_$_x001c__x0005_</v>
-      </c>
-      <c r="V32" t="str">
-        <v>-/G</v>
-      </c>
-      <c r="W32" t="str">
-        <v>_x0007__x000e_;$5_x0008_</v>
-      </c>
-      <c r="X32" t="str">
+      <c r="T35" t="str">
+        <v>B_x0004__x001f_</v>
+      </c>
+      <c r="U35" t="str">
+        <v>_x000e_&lt;_x000d__x000e__x0016_$_x001c__x0005_</v>
+      </c>
+      <c r="V35" t="str">
+        <v>-/C</v>
+      </c>
+      <c r="W35" t="str">
+        <v>_x0007__x000e_&lt;$M_x0008_</v>
+      </c>
+      <c r="X35" t="str">
         <v>#_x0017__x0003__x000e__x000d_</v>
       </c>
-      <c r="Y32" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015_8I 
-_x0008_</v>
-      </c>
-      <c r="Z32" t="str" xml:space="preserve">
-        <v xml:space="preserve">4,-'
-_x0008_</v>
-      </c>
-      <c r="AA32" t="str">
-        <v>_x000e_;_x0015_&amp;_x001f_</v>
-      </c>
-      <c r="AB32" t="str">
+      <c r="Y35" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015_:I 
+_x0008_</v>
+      </c>
+      <c r="Z35" t="str" xml:space="preserve">
+        <v xml:space="preserve">5,-'
+_x0008_</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>_x000e_&lt;_x0015_&amp;_x001f_</v>
+      </c>
+      <c r="AB35" t="str">
         <v>_x000e__x0005_,</v>
       </c>
-      <c r="AC32" t="str">
+      <c r="AC35" t="str">
         <v>H_x000d__x0004_$_x0017_</v>
       </c>
-      <c r="AD32" t="str">
+      <c r="AD35" t="str">
         <v>D_x0015_&amp;_x001f_</v>
       </c>
-      <c r="AE32" t="str">
+      <c r="AE35" t="str">
         <v>(_x0005_</v>
       </c>
-      <c r="AF32" t="str">
+      <c r="AF35" t="str">
         <v>.</v>
       </c>
-      <c r="AG32" t="str">
+      <c r="AG35" t="str">
         <v>_x0003__x000e_N_x0008_</v>
       </c>
-      <c r="AH32" t="str">
-        <v>4_x000c_/_x0014_+,</v>
-      </c>
-      <c r="AI32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AJ32" t="str">
-        <v>_x0010_/G_x0003__x0008_</v>
-      </c>
-      <c r="AK32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AL32" t="str">
-        <v>O_x0004_ _x0005_</v>
-      </c>
-      <c r="AM32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AN32" t="str">
-        <v>D_x0015__x001c_A</v>
-      </c>
-      <c r="AO32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AP32" t="str">
-        <v>4_x000c__x001e_'K,</v>
-      </c>
-      <c r="AQ32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AR32" t="str">
-        <v>_x0010_/_x0014_+,</v>
-      </c>
-      <c r="AS32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AT32" t="str">
-        <v>D3_x000e_'_x0015_5_x000e_'N,</v>
-      </c>
-      <c r="AU32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AV32" t="str" xml:space="preserve">
-        <v xml:space="preserve">7
-_x0008_</v>
-      </c>
-      <c r="AW32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AX32" t="str">
-        <v>4_x000c_/_x0014_+,</v>
-      </c>
-      <c r="AY32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AZ32" t="str">
-        <v>_x0010_/_x0014_+</v>
-      </c>
-      <c r="BA32" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="BB32" t="str">
-        <v>P_x001a__x000f_</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
+      <c r="AH35" t="str">
+        <v>_x000e__x0012__x0004__x0002_</v>
+      </c>
+      <c r="AI35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ35" t="str">
+        <v>5_x000c__x001e_'O,</v>
+      </c>
+      <c r="AK35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL35" t="str">
+        <v>_x0010__x0015_M_x000e_'N</v>
+      </c>
+      <c r="AM35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN35" t="str">
+        <v>P_x0004_ _x0005_</v>
+      </c>
+      <c r="AO35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP35" t="str">
+        <v>D_x0015__x001c_1</v>
+      </c>
+      <c r="AQ35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR35" t="str">
+        <v>5_x000c_M_x000e_'N,</v>
+      </c>
+      <c r="AS35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT35" t="str">
+        <v>-:_x0008_,,</v>
+      </c>
+      <c r="AU35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV35" t="str">
+        <v>_x0010_4_x000e__x0005_,</v>
+      </c>
+      <c r="AW35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX35" t="str" xml:space="preserve">
+        <v xml:space="preserve">9
+_x0008_</v>
+      </c>
+      <c r="AY35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ35" t="str">
+        <v>5_x000c_$+,</v>
+      </c>
+      <c r="BA35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB35" t="str">
+        <v>_x0010_$+</v>
+      </c>
+      <c r="BC35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BD35" t="str">
+        <v>Q_x001a__x000f_</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
         <v>205/050/743</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B37" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="C34" t="str" xml:space="preserve">
+      <c r="C37" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0004__x0005__x0006__x0007__x0008_	
 </v>
       </c>
-      <c r="D34" t="str" xml:space="preserve">
+      <c r="D37" t="str" xml:space="preserve">
         <v xml:space="preserve">_x000b__x000c_
 _x000d__x000e__x000f_</v>
       </c>
     </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str" xml:space="preserve">
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0010__x0011__x0012__x0005__x0013__x0014_	
 </v>
       </c>
-      <c r="B35" t="str">
+      <c r="B38" t="str">
         <v>2</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C38" t="str">
         <v>/</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D38" t="str">
         <v>2</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E38" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F38" t="str">
         <v>_x0004__x0005__x0006_</v>
       </c>
-      <c r="G35" t="str" xml:space="preserve">
+      <c r="G38" t="str" xml:space="preserve">
         <v xml:space="preserve">_x0007__x0008__x0004_	
 _x0008_</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H38" t="str">
         <v>_x000b__x0003__x000c__x000d__x000e__x000f_</v>
-      </c>
-      <c r="I35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="J35" t="str">
-        <v>421217621</v>
-      </c>
-      <c r="K35" t="str">
-        <v>_x0010__x0011__x0004__x0012_</v>
-      </c>
-      <c r="L35" t="str">
-        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
-      </c>
-      <c r="M35" t="str">
-        <v>_x0018__x0019__x000c__x000f_</v>
-      </c>
-      <c r="N35" t="str">
-        <v>_x0010__x001a__x001b__x001c__x0005_</v>
-      </c>
-      <c r="O35" t="str">
-        <v>_x001d__x0003__x000e__x0014__x0005_</v>
-      </c>
-      <c r="P35" t="str">
-        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
-      </c>
-      <c r="Q35" t="str">
-        <v>-</v>
-      </c>
-      <c r="R35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
-_x0008_</v>
-      </c>
-      <c r="S35" t="str">
-        <v>!</v>
-      </c>
-      <c r="T35" t="str">
-        <v>048\590050-590051</v>
-      </c>
-      <c r="U35" t="str">
-        <v>"_x0011__x000e__x000f_</v>
-      </c>
-      <c r="V35" t="str">
-        <v>048\590052</v>
-      </c>
-      <c r="W35" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="X35" t="str">
-        <v>FWI-SL-01\02:</v>
-      </c>
-      <c r="Y35" t="str">
-        <v>,M_x0017_?_x0008_</v>
-      </c>
-      <c r="Z35" t="str" xml:space="preserve">
-        <v xml:space="preserve">P&lt;
-_x0008_</v>
-      </c>
-      <c r="AA35" t="str">
-        <v>19624:</v>
-      </c>
-      <c r="AB35" t="str" xml:space="preserve">
-        <v xml:space="preserve">(K_x000e__x001e_
-_x0008_</v>
-      </c>
-      <c r="AC35" t="str">
-        <v>_x0010__x0005_-K</v>
-      </c>
-      <c r="AD35" t="str">
-        <v>:</v>
-      </c>
-      <c r="AE35" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0007_I'/
-_x0008_</v>
-      </c>
-      <c r="AF35" t="str">
-        <v>01224475178</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x000b__x0004_Q_x000e__x001a_
-_x0008_</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str">
-        <v>_x0003__x000e_'R$+S</v>
-      </c>
-      <c r="B38" t="str">
-        <v xml:space="preserve">3303  </v>
-      </c>
-      <c r="C38" t="str">
-        <v>_x0001__x0002__x0003_</v>
-      </c>
-      <c r="D38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E38" t="str">
-        <v>O_x0003__x000e__x0016__x000d_</v>
-      </c>
-      <c r="F38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G38" t="str">
-        <v>0_x0016_+</v>
-      </c>
-      <c r="H38" t="str">
-        <v xml:space="preserve"> 026/214  </v>
       </c>
       <c r="I38" t="str">
         <v>_x0001__x0002__x0003_</v>
       </c>
       <c r="J38" t="str">
-        <v xml:space="preserve"> </v>
+        <v>421211628</v>
       </c>
       <c r="K38" t="str">
-        <v>7&amp;_x0005_</v>
+        <v>_x0010__x0011__x0004__x0012_</v>
       </c>
       <c r="L38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M38" t="str" xml:space="preserve">
+        <v>_x0013__x0014__x0015__x0016__x0017__x0008_</v>
+      </c>
+      <c r="M38" t="str">
+        <v>_x0018__x0019__x000c__x000f_</v>
+      </c>
+      <c r="N38" t="str">
+        <v>_x0010__x001a__x001b__x001c__x0005_</v>
+      </c>
+      <c r="O38" t="str">
+        <v>_x001d__x0003__x000e__x0014__x0005_</v>
+      </c>
+      <c r="P38" t="str">
+        <v>_x000e__x001c__x001e__x0017__x000c__x0002_</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>-</v>
+      </c>
+      <c r="R38" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0010__x0015__x001f__x000e__x001c_ 
+_x0008_</v>
+      </c>
+      <c r="S38" t="str">
+        <v>!</v>
+      </c>
+      <c r="T38" t="str">
+        <v>048\590050-590051</v>
+      </c>
+      <c r="U38" t="str">
+        <v>"_x0011__x000e__x000f_</v>
+      </c>
+      <c r="V38" t="str">
+        <v>048\590052</v>
+      </c>
+      <c r="W38" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="X38" t="str">
+        <v>FWI-SL-01\02:</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>,L_x0017_2_x0008_</v>
+      </c>
+      <c r="Z38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Q=
+_x0008_</v>
+      </c>
+      <c r="AA38" t="str">
+        <v>19624:</v>
+      </c>
+      <c r="AB38" t="str" xml:space="preserve">
+        <v xml:space="preserve">(O_x000e__x001e_
+_x0008_</v>
+      </c>
+      <c r="AC38" t="str">
+        <v>_x0010__x0005_-O</v>
+      </c>
+      <c r="AD38" t="str">
+        <v>:</v>
+      </c>
+      <c r="AE38" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0007_I'/
+_x0008_</v>
+      </c>
+      <c r="AF38" t="str">
+        <v>01224475178</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x000b__x0004_6_x000e__x001a_
+_x0008_</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>_x0003__x000e_'R$+S</v>
+      </c>
+      <c r="B41" t="str">
+        <v xml:space="preserve">3303  </v>
+      </c>
+      <c r="C41" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="D41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E41" t="str">
+        <v>P_x0003__x000e__x0016__x000d_</v>
+      </c>
+      <c r="F41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G41" t="str">
+        <v>0_x0016_+</v>
+      </c>
+      <c r="H41" t="str">
+        <v xml:space="preserve"> 026/214  </v>
+      </c>
+      <c r="I41" t="str">
+        <v>_x0001__x0002__x0003_</v>
+      </c>
+      <c r="J41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K41" t="str">
+        <v>9&amp;_x0005_</v>
+      </c>
+      <c r="L41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M41" t="str" xml:space="preserve">
         <v xml:space="preserve">(_x0015_
 _x000c_''
 _x0008_</v>
       </c>
-      <c r="N38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O38" t="str" xml:space="preserve">
-        <v xml:space="preserve">_x0003__x000e__x0014_9
+      <c r="N41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O41" t="str" xml:space="preserve">
+        <v xml:space="preserve">_x0003__x000e__x0014_7
 </v>
       </c>
-      <c r="P38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q38" t="str" xml:space="preserve">
-        <v xml:space="preserve">=_x0014__x0017__x0004_@
-_x0008_</v>
-      </c>
-      <c r="R38" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S38" t="str" xml:space="preserve">
-        <v xml:space="preserve">M_x0011__x0004_'
-_x0008_</v>
-      </c>
-      <c r="T38" t="str">
+      <c r="P41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q41" t="str" xml:space="preserve">
+        <v xml:space="preserve">&gt;_x0014__x0017__x0004_@
+_x0008_</v>
+      </c>
+      <c r="R41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S41" t="str" xml:space="preserve">
+        <v xml:space="preserve">L_x0011__x0004_'
+_x0008_</v>
+      </c>
+      <c r="T41" t="str">
         <v>T_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="U38" t="str">
+      <c r="U41" t="str">
         <v>:</v>
       </c>
-      <c r="V38" t="str" xml:space="preserve">
+      <c r="V41" t="str" xml:space="preserve">
         <v xml:space="preserve">%,-_x001c_'
 _x0008_</v>
       </c>
-      <c r="W38" t="str">
+      <c r="W41" t="str">
         <v>--------------</v>
       </c>
-      <c r="X38" t="str">
+      <c r="X41" t="str">
         <v>T_x0015__x0002__x000c__x000d_</v>
       </c>
-      <c r="Y38" t="str" xml:space="preserve">
+      <c r="Y41" t="str" xml:space="preserve">
         <v xml:space="preserve">0_x0015_'/
 _x0008_</v>
       </c>
-      <c r="Z38" t="str">
+      <c r="Z41" t="str">
         <v>:</v>
       </c>
-      <c r="AA38" t="str">
-        <v>BI$+?_x000e_G</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
+      <c r="AA41" t="str">
+        <v>AI$+2_x000e_C</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
         <v>------------------</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CN39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CR42"/>
   </ignoredErrors>
 </worksheet>
 </file>